--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mafec\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mafec\Documents\GitHub\Ingeco\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prueba </t>
   </si>
 </sst>
 </file>
@@ -306,16 +309,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,9 +320,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,14 +335,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +348,6 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,13 +362,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,17 +375,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,6 +385,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,8 +447,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1471557" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -481,6 +484,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -581,7 +585,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -651,8 +655,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3068661" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -688,6 +692,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -787,7 +792,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -800,7 +805,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -814,7 +819,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -827,7 +832,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -841,23 +846,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>200</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>2001</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -883,7 +876,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -896,7 +889,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -910,7 +903,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -923,7 +916,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -937,23 +930,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>20</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>18</m:t>
+                              <m:t>2018</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -967,7 +948,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -1996,8 +1977,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1471557" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23"/>
@@ -2033,6 +2014,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2133,7 +2115,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23"/>
@@ -3083,8 +3065,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="977640" cy="357277"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -3120,6 +3102,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3202,7 +3185,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -3798,8 +3781,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3116751" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -4067,7 +4050,7 @@
                             <a:effectLst/>
                             <a:uLnTx/>
                             <a:uFillTx/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4085,7 +4068,7 @@
                             <a:effectLst/>
                             <a:uLnTx/>
                             <a:uFillTx/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4104,7 +4087,7 @@
                                 <a:effectLst/>
                                 <a:uLnTx/>
                                 <a:uFillTx/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4122,7 +4105,7 @@
                                 <a:effectLst/>
                                 <a:uLnTx/>
                                 <a:uFillTx/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4181,7 +4164,7 @@
                             <a:effectLst/>
                             <a:uLnTx/>
                             <a:uFillTx/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4199,7 +4182,7 @@
                             <a:effectLst/>
                             <a:uLnTx/>
                             <a:uFillTx/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4218,7 +4201,7 @@
                                 <a:effectLst/>
                                 <a:uLnTx/>
                                 <a:uFillTx/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4236,7 +4219,7 @@
                                 <a:effectLst/>
                                 <a:uLnTx/>
                                 <a:uFillTx/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4255,28 +4238,11 @@
                                 <a:effectLst/>
                                 <a:uLnTx/>
                                 <a:uFillTx/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>20</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                                <a:ln>
-                                  <a:noFill/>
-                                </a:ln>
-                                <a:solidFill>
-                                  <a:sysClr val="windowText" lastClr="000000"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:uLnTx/>
-                                <a:uFillTx/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>18</m:t>
+                              <m:t>2018</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -4303,7 +4269,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -4545,8 +4511,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="977640" cy="357277"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -4582,6 +4548,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4664,7 +4631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -4989,13 +4956,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -5053,425 +5020,425 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18">
+      <c r="C7" s="40"/>
+      <c r="D7" s="14">
         <v>5000</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="19" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="K7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>2000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="18">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>2001</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>2002</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="18">
         <f>D11*(1+C11)</f>
         <v>5853.46875</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>2003</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <f t="shared" ref="D13:D29" si="0">D12*(1+C12)</f>
         <v>6262.6262156250004</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>2004</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <f t="shared" si="0"/>
         <v>6669.0706570190623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>2005</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="18">
         <f t="shared" si="0"/>
         <v>7035.8695431551105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>2006</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>4.48E-2</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="18">
         <f t="shared" si="0"/>
         <v>7377.1092159981335</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>2007</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="18">
         <f t="shared" si="0"/>
         <v>7707.6037088748499</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>2008</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
         <v>8146.1663599098283</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>2009</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>0.02</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="18">
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>2010</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="18">
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>2011</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>3.73E-2</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="18">
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <v>2012</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>3.44E-2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="18">
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>2013</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="18">
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <v>2014</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="18">
         <f t="shared" si="0"/>
         <v>10095.762127067228</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>2015</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="18">
         <f t="shared" si="0"/>
         <v>10465.267020917889</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>2016</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="18">
         <f t="shared" si="0"/>
         <v>11173.765598234031</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>2017</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="18">
         <f t="shared" si="0"/>
         <v>11816.25712013249</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>2018</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="18">
         <f t="shared" si="0"/>
         <v>12299.542036345909</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
+      <c r="B29" s="15">
         <v>2019</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24">
+      <c r="C29" s="16"/>
+      <c r="D29" s="19">
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
@@ -5483,340 +5450,331 @@
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34">
+      <c r="C36" s="39"/>
+      <c r="D36" s="26">
         <v>5000</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="13">
+      <c r="C37" s="39"/>
+      <c r="D37" s="10">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="K37" s="19" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="K37" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="B40" s="12">
         <v>2000</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="18">
         <v>5000</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+      <c r="B41" s="12">
         <v>2001</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="18">
         <f>$D$36*(1+$D$37)</f>
         <v>5252.105263157895</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+      <c r="B42" s="12">
         <v>2002</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="18">
         <f>C41*(1+$D$37)</f>
         <v>5516.921939058172</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
+      <c r="B43" s="12">
         <v>2003</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="18">
         <f t="shared" ref="C43:C59" si="1">C42*(1+$D$37)</f>
         <v>5795.090950511737</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="B44" s="12">
         <v>2004</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="18">
         <f t="shared" si="1"/>
         <v>6087.285536332276</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+      <c r="B45" s="12">
         <v>2005</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="18">
         <f t="shared" si="1"/>
         <v>6394.2128807431345</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+      <c r="B46" s="12">
         <v>2006</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="18">
         <f t="shared" si="1"/>
         <v>6716.6158249406044</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+      <c r="B47" s="12">
         <v>2007</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="18">
         <f t="shared" si="1"/>
         <v>7055.2746649560304</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="15">
+      <c r="B48" s="12">
         <v>2008</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="18">
         <f t="shared" si="1"/>
         <v>7411.0090401680236</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+      <c r="B49" s="12">
         <v>2009</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="18">
         <f t="shared" si="1"/>
         <v>7784.6799170354425</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+      <c r="B50" s="12">
         <v>2010</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="18">
         <f t="shared" si="1"/>
         <v>8177.191672852282</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+      <c r="B51" s="12">
         <v>2011</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="18">
         <f t="shared" si="1"/>
         <v>8589.494284567676</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="15">
+      <c r="B52" s="12">
         <v>2012</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="18">
         <f t="shared" si="1"/>
         <v>9022.5856279685086</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="15">
+      <c r="B53" s="12">
         <v>2013</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="18">
         <f t="shared" si="1"/>
         <v>9477.5138927892367</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="15">
+      <c r="B54" s="12">
         <v>2014</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="18">
         <f t="shared" si="1"/>
         <v>9955.3801195940832</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+      <c r="B55" s="12">
         <v>2015</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="18">
         <f t="shared" si="1"/>
         <v>10457.340864571512</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="15">
+      <c r="B56" s="12">
         <v>2016</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="18">
         <f t="shared" si="1"/>
         <v>10984.610998690432</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+      <c r="B57" s="12">
         <v>2017</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="18">
         <f t="shared" si="1"/>
         <v>11538.466647992824</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="15">
+      <c r="B58" s="12">
         <v>2018</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="18">
         <f t="shared" si="1"/>
         <v>12120.248282138988</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="20">
+      <c r="B59" s="15">
         <v>2019</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="19">
         <f t="shared" si="1"/>
         <v>12731.363958680522</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="F19:L23"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:F5"/>
@@ -5827,6 +5785,15 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:N8"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="F19:L23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5845,152 +5812,152 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="28">
         <v>0.05</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="30">
         <v>3000000</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>2019</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <f>$C$6/(1+$C$5)^B9</f>
         <v>3000000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>2018</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <f t="shared" ref="D10:D14" si="0">$C$6/(1+$C$5)^B10</f>
         <v>2857142.8571428568</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="30">
         <v>2350578</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="30">
         <v>3000000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>2017</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>2721088.4353741496</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="28">
         <v>0.05</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="28">
         <v>0.05</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="28">
         <v>0.05</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="28">
         <v>0.05</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="28">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>2016</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>2591512.7955944277</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>2015</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>2468107.4243756458</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>2014</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>2350578.4994053771</v>
       </c>
@@ -6011,7 +5978,7 @@
   <dimension ref="A3:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6021,7 +5988,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -6046,106 +6013,106 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="30">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>1990</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>0.32369999999999999</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>1000000</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="E9" s="17"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>1991</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>0.26819999999999999</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <f>$C$6*(1+C9)</f>
         <v>1323700</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>1992</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>0.25140000000000001</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <f>D10*(1+C10)</f>
         <v>1678716.34</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>1993</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>0.2261</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <f t="shared" ref="D12:D38" si="0">D11*(1+C11)</f>
         <v>2100745.627876</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>1994</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>2575724.2143387636</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="17"/>
       <c r="H13" t="s">
         <v>12</v>
       </c>
@@ -6157,370 +6124,373 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>1995</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>0.19470000000000001</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>3157837.8867793242</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="7"/>
       <c r="H14">
         <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>1996</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>0.21640000000000001</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>3772668.9233352588</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="17"/>
       <c r="H15">
         <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>1997</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>0.17680000000000001</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>4589074.4783450086</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="17"/>
       <c r="H16">
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
         <v>1998</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>5400422.8461164068</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="17"/>
       <c r="H17">
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
         <v>1999</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>6302293.4614178473</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="17"/>
       <c r="H18">
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
         <v>2000</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>6883995.1479067151</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="17"/>
       <c r="H19">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
         <v>2001</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>7486344.7233485524</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="17"/>
       <c r="H20">
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>2002</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>8059050.0946847163</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="17"/>
       <c r="H21">
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>2003</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>8622377.6963031795</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="17"/>
       <c r="H22">
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
         <v>2004</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>9181970.0087932553</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="17"/>
       <c r="H23">
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
         <v>2005</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>9686978.3592768833</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="17"/>
       <c r="H24">
         <v>2009</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
         <v>2006</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>4.48E-2</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>10156796.809701812</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="17"/>
       <c r="H25">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>2007</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>10611821.306776453</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="17"/>
       <c r="H26">
         <v>2007</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
         <v>2008</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>11215633.939132033</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="17"/>
       <c r="H27">
         <v>2006</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
         <v>2009</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>0.02</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>12075873.062263459</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="17"/>
       <c r="H28">
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
         <v>2010</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>12317390.523508728</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="17"/>
       <c r="H29">
         <v>2004</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
         <v>2011</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>3.73E-2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>12707851.803103955</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="17"/>
       <c r="H30">
         <v>2003</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
         <v>2012</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>3.44E-2</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>13181854.675359735</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="17"/>
       <c r="H31">
         <v>2002</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
         <v>2013</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>13635310.476192109</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="17"/>
       <c r="H32">
         <v>2001</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="12">
         <v>2014</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>13899835.499430237</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="17"/>
       <c r="H33">
         <v>2000</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="12">
         <v>2015</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>14408569.478709383</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="17"/>
       <c r="H34">
         <v>1999</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="B35" s="12">
         <v>2016</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>15384029.63241801</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="17"/>
       <c r="H35">
         <v>1998</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+      <c r="B36" s="12">
         <v>2017</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="17">
         <f t="shared" si="0"/>
         <v>16268611.336282048</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="17">
         <f>$E$38/(1+C36)*(1+C35)</f>
         <v>0</v>
       </c>
@@ -6529,31 +6499,31 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
+      <c r="B37" s="12">
         <v>2018</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="17">
         <f t="shared" si="0"/>
         <v>16933997.539935984</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="17"/>
       <c r="H37">
         <v>1996</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="B38" s="12">
         <v>2019</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="22">
+      <c r="C38" s="12"/>
+      <c r="D38" s="17">
         <f t="shared" si="0"/>
         <v>17472498.661705948</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="17"/>
       <c r="H38">
         <v>1995</v>
       </c>
@@ -6574,11 +6544,11 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="H42">
         <v>1991</v>
       </c>

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">valor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prueba </t>
   </si>
 </sst>
 </file>
@@ -389,10 +386,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,20 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5020,39 +5017,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -5062,35 +5059,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="14">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="K7" s="37" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="K7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -5125,12 +5122,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -5248,15 +5245,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -5269,13 +5266,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -5288,13 +5285,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -5307,13 +5304,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -5326,13 +5323,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -5403,11 +5400,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
@@ -5418,13 +5415,13 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -5441,13 +5438,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
@@ -5457,10 +5454,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="26">
         <v>5000</v>
       </c>
@@ -5468,28 +5465,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="10">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="K37" s="37" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="K37" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
@@ -5761,20 +5758,23 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:F5"/>
@@ -5791,9 +5791,6 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5815,16 +5812,16 @@
       <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -5837,8 +5834,8 @@
         <v>19</v>
       </c>
       <c r="G5" s="45"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -5849,8 +5846,8 @@
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="29"/>
@@ -5977,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,21 +5988,21 @@
       <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -6021,12 +6018,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
@@ -6041,10 +6038,10 @@
       <c r="E8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
@@ -6057,10 +6054,10 @@
         <v>1000000</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
@@ -6172,7 +6169,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1998</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1999</v>
       </c>
@@ -6204,7 +6201,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>2000</v>
       </c>
@@ -6220,7 +6217,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <v>2001</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <v>2002</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>2003</v>
       </c>
@@ -6268,7 +6265,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>2004</v>
       </c>
@@ -6284,7 +6281,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>2005</v>
       </c>
@@ -6299,11 +6296,8 @@
       <c r="H24">
         <v>2009</v>
       </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>2006</v>
       </c>
@@ -6319,7 +6313,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>2007</v>
       </c>
@@ -6335,7 +6329,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>2008</v>
       </c>
@@ -6351,7 +6345,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>2009</v>
       </c>
@@ -6367,7 +6361,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <v>2010</v>
       </c>
@@ -6383,7 +6377,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <v>2011</v>
       </c>
@@ -6399,7 +6393,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>2012</v>
       </c>
@@ -6415,7 +6409,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>2013</v>
       </c>
@@ -6544,11 +6538,11 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="H42">
         <v>1991</v>
       </c>

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -156,12 +156,6 @@
   </si>
   <si>
     <t>Presente:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inflación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor </t>
   </si>
 </sst>
 </file>
@@ -386,6 +380,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,20 +401,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5017,39 +5011,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -5059,35 +5053,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="14">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="K7" s="40" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="K7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -5122,12 +5116,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
@@ -5245,15 +5239,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -5266,13 +5260,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -5285,13 +5279,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -5304,13 +5298,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -5323,13 +5317,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -5400,11 +5394,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
@@ -5415,13 +5409,13 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -5438,13 +5432,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
@@ -5454,10 +5448,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="26">
         <v>5000</v>
       </c>
@@ -5465,28 +5459,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="10">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="K37" s="40" t="s">
+      <c r="G37" s="42"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="K37" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
@@ -5758,39 +5752,39 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="F19:L23"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="F19:L23"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5812,16 +5806,16 @@
       <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -5834,8 +5828,8 @@
         <v>19</v>
       </c>
       <c r="G5" s="45"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -5846,8 +5840,8 @@
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="29"/>
@@ -5972,10 +5966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N43"/>
+  <dimension ref="A3:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,21 +5982,21 @@
       <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -6018,12 +6012,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
@@ -6038,10 +6032,10 @@
       <c r="E8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
@@ -6054,10 +6048,10 @@
         <v>1000000</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
@@ -6110,15 +6104,6 @@
         <v>2575724.2143387636</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
@@ -6133,9 +6118,6 @@
       </c>
       <c r="E14" s="17"/>
       <c r="G14" s="7"/>
-      <c r="H14">
-        <v>2019</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
@@ -6149,9 +6131,6 @@
         <v>3772668.9233352588</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="H15">
-        <v>2018</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
@@ -6165,11 +6144,8 @@
         <v>4589074.4783450086</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="H16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1998</v>
       </c>
@@ -6181,11 +6157,8 @@
         <v>5400422.8461164068</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="H17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1999</v>
       </c>
@@ -6197,11 +6170,8 @@
         <v>6302293.4614178473</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="H18">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>2000</v>
       </c>
@@ -6213,11 +6183,8 @@
         <v>6883995.1479067151</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="H19">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <v>2001</v>
       </c>
@@ -6229,11 +6196,8 @@
         <v>7486344.7233485524</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="H20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <v>2002</v>
       </c>
@@ -6245,11 +6209,8 @@
         <v>8059050.0946847163</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="H21">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>2003</v>
       </c>
@@ -6261,11 +6222,8 @@
         <v>8622377.6963031795</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="H22">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>2004</v>
       </c>
@@ -6277,11 +6235,8 @@
         <v>9181970.0087932553</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="H23">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>2005</v>
       </c>
@@ -6293,11 +6248,8 @@
         <v>9686978.3592768833</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="H24">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>2006</v>
       </c>
@@ -6309,11 +6261,8 @@
         <v>10156796.809701812</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="H25">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>2007</v>
       </c>
@@ -6325,11 +6274,8 @@
         <v>10611821.306776453</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="H26">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>2008</v>
       </c>
@@ -6341,11 +6287,8 @@
         <v>11215633.939132033</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="H27">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>2009</v>
       </c>
@@ -6357,11 +6300,8 @@
         <v>12075873.062263459</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="H28">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <v>2010</v>
       </c>
@@ -6373,11 +6313,8 @@
         <v>12317390.523508728</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="H29">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <v>2011</v>
       </c>
@@ -6389,11 +6326,8 @@
         <v>12707851.803103955</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="H30">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>2012</v>
       </c>
@@ -6405,11 +6339,8 @@
         <v>13181854.675359735</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="H31">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>2013</v>
       </c>
@@ -6421,11 +6352,8 @@
         <v>13635310.476192109</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="H32">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>2014</v>
       </c>
@@ -6437,11 +6365,8 @@
         <v>13899835.499430237</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="H33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <v>2015</v>
       </c>
@@ -6453,11 +6378,8 @@
         <v>14408569.478709383</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="H34">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <v>2016</v>
       </c>
@@ -6469,11 +6391,8 @@
         <v>15384029.63241801</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="H35">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <v>2017</v>
       </c>
@@ -6488,11 +6407,8 @@
         <f>$E$38/(1+C36)*(1+C35)</f>
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <v>2018</v>
       </c>
@@ -6504,11 +6420,8 @@
         <v>16933997.539935984</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="H37">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <v>2019</v>
       </c>
@@ -6518,39 +6431,13 @@
         <v>17472498.661705948</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="H38">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H39">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="H42">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H43">
-        <v>1990</v>
-      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -134,9 +134,6 @@
     <t>4.</t>
   </si>
   <si>
-    <t>a. ¿Se mantiene el valor económico?</t>
-  </si>
-  <si>
     <t>Evalúe cuánto fue el valor monetario de 1'000.000 de pesos de hoy en el año 1990.Evalúe cuánto es el valor monetario de 1'000.000 de pesos de 1990,hoy.</t>
   </si>
   <si>
@@ -155,7 +152,35 @@
     <t xml:space="preserve">Ecuaciones usadas </t>
   </si>
   <si>
-    <t>Presente:</t>
+    <t>Futuro(2019):</t>
+  </si>
+  <si>
+    <t>Valor de 1.000.000 hoy en 1990</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valor de 1.000.000 en 1990 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoy</t>
+    </r>
+  </si>
+  <si>
+    <t>a.¿Se mantiene el valor económico?</t>
+  </si>
+  <si>
+    <t>b. ¿Qué implicaciones tiene esto en las decisiones financieras?</t>
+  </si>
+  <si>
+    <t>c. ¿Qué implicaciones tiene esto en las decisiones económicas? De ejemplos.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -284,12 +321,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,7 +355,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,11 +422,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,20 +455,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3766,14 +3824,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3116751" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -3781,7 +3839,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6248400" y="1381125"/>
+              <a:off x="6191250" y="1762125"/>
               <a:ext cx="3116751" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4260,7 +4318,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -4268,7 +4326,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6248400" y="1381125"/>
+              <a:off x="6191250" y="1762125"/>
               <a:ext cx="3116751" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4352,126 +4410,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑛=𝑃(1+〖𝑖𝑛𝑓〗_1990 )∗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1+〖𝑖𝑛𝑓〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1991</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>…</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1+〖𝑖𝑛𝑓〗_20</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>18</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="es-CO" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
+                <a:t>𝑛=𝑃(1+〖𝑖𝑛𝑓〗_1990 )∗(1+〖𝑖𝑛𝑓〗_1991 )…(1+〖𝑖𝑛𝑓〗_2018 )</a:t>
               </a:r>
               <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0" smtClean="0">
                 <a:ln>
@@ -4496,14 +4435,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="977640" cy="357277"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2938305" cy="346570"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -4511,8 +4450,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7210425" y="990600"/>
-              <a:ext cx="977640" cy="357277"/>
+              <a:off x="6267450" y="1362075"/>
+              <a:ext cx="2938305" cy="346570"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4575,43 +4514,246 @@
                         </m:r>
                       </m:num>
                       <m:den>
-                        <m:sSup>
-                          <m:sSupPr>
+                        <m:d>
+                          <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:sSupPr>
+                          </m:dPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>(1+</m:t>
+                              <m:t>1+</m:t>
                             </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖𝑛𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1990</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
                             <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑖𝑛𝑓</m:t>
+                              <m:t>1+</m:t>
                             </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖𝑛𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1991</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>…</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
                             <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>)</m:t>
+                              <m:t>1+</m:t>
                             </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖𝑛𝑓</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-CO" sz="1100" b="0" i="1" baseline="0">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2018</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                           </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
+                        </m:d>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -4622,7 +4764,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -4630,8 +4772,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7210425" y="990600"/>
-              <a:ext cx="977640" cy="357277"/>
+              <a:off x="6267450" y="1362075"/>
+              <a:ext cx="2938305" cy="346570"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4658,11 +4800,48 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑃=𝐹/〖(1+𝑖𝑛𝑓)〗^𝑛 </a:t>
+                <a:t>𝑃=𝐹/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1+〖𝑖𝑛𝑓〗_1990 )∗(1+〖𝑖𝑛𝑓〗_1991 )…(1+〖𝑖𝑛𝑓〗_2018 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4670,6 +4849,591 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>242042</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Grupo 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5972175" y="2343150"/>
+          <a:ext cx="4299692" cy="447675"/>
+          <a:chOff x="4324350" y="1581150"/>
+          <a:chExt cx="4299692" cy="447675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Conector recto 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4581525" y="1914525"/>
+            <a:ext cx="3810000" cy="9525"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Conector recto 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="1819275"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Conector recto 7"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5324475" y="1819275"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Conector recto 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6096000" y="1828800"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Conector recto 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6858000" y="1819275"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Conector recto 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="1828800"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Conector recto 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8372475" y="1838325"/>
+            <a:ext cx="0" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="CuadroTexto 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4324350" y="1600200"/>
+            <a:ext cx="470642" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>1990</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095875" y="1600200"/>
+            <a:ext cx="470642" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>1991</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="CuadroTexto 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5953125" y="1581150"/>
+            <a:ext cx="291426" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>...</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6610350" y="1600200"/>
+            <a:ext cx="470642" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2017</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="CuadroTexto 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381875" y="1600200"/>
+            <a:ext cx="470642" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2018</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="CuadroTexto 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8153400" y="1609725"/>
+            <a:ext cx="470642" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2019</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="291426" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="2695575"/>
+          <a:ext cx="291426" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -5011,39 +5775,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -5053,369 +5817,369 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="14">
+      <c r="C7" s="37"/>
+      <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="K7" s="36" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2000</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>2001</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2002</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f>D11*(1+C11)</f>
         <v>5853.46875</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>2003</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <f t="shared" ref="D13:D29" si="0">D12*(1+C12)</f>
         <v>6262.6262156250004</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>2004</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>5.5E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>6669.0706570190623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>2005</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>7035.8695431551105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>2006</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>4.48E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>7377.1092159981335</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>2007</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>7707.6037088748499</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>2008</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>8146.1663599098283</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>2009</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>0.02</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>2010</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>2011</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>3.73E-2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>2012</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>3.44E-2</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>2013</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>2014</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>10095.762127067228</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>2015</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>10465.267020917889</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>2016</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>11173.765598234031</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>2017</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>11816.25712013249</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>2018</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>12299.542036345909</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>2019</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="19">
+      <c r="C29" s="15"/>
+      <c r="D29" s="18">
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -5432,88 +6196,88 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="26">
+      <c r="C36" s="41"/>
+      <c r="D36" s="25">
         <v>5000</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="10">
+      <c r="C37" s="41"/>
+      <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="K37" s="36" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="K37" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>2000</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>5000</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>2001</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <f>$D$36*(1+$D$37)</f>
         <v>5252.105263157895</v>
       </c>
@@ -5521,10 +6285,10 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>2002</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <f>C41*(1+$D$37)</f>
         <v>5516.921939058172</v>
       </c>
@@ -5532,10 +6296,10 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>2003</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <f t="shared" ref="C43:C59" si="1">C42*(1+$D$37)</f>
         <v>5795.090950511737</v>
       </c>
@@ -5543,10 +6307,10 @@
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>2004</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <f t="shared" si="1"/>
         <v>6087.285536332276</v>
       </c>
@@ -5554,10 +6318,10 @@
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>2005</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <f t="shared" si="1"/>
         <v>6394.2128807431345</v>
       </c>
@@ -5586,10 +6350,10 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>2006</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <f t="shared" si="1"/>
         <v>6716.6158249406044</v>
       </c>
@@ -5597,10 +6361,10 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>2007</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <f t="shared" si="1"/>
         <v>7055.2746649560304</v>
       </c>
@@ -5608,10 +6372,10 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>2008</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <f t="shared" si="1"/>
         <v>7411.0090401680236</v>
       </c>
@@ -5619,10 +6383,10 @@
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>2009</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <f t="shared" si="1"/>
         <v>7784.6799170354425</v>
       </c>
@@ -5630,10 +6394,10 @@
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>2010</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <f t="shared" si="1"/>
         <v>8177.191672852282</v>
       </c>
@@ -5641,10 +6405,10 @@
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>2011</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <f t="shared" si="1"/>
         <v>8589.494284567676</v>
       </c>
@@ -5652,10 +6416,10 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>2012</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <f t="shared" si="1"/>
         <v>9022.5856279685086</v>
       </c>
@@ -5663,10 +6427,10 @@
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>2013</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <f t="shared" si="1"/>
         <v>9477.5138927892367</v>
       </c>
@@ -5674,10 +6438,10 @@
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>2014</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <f t="shared" si="1"/>
         <v>9955.3801195940832</v>
       </c>
@@ -5685,10 +6449,10 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>2015</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <f t="shared" si="1"/>
         <v>10457.340864571512</v>
       </c>
@@ -5696,10 +6460,10 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>2016</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <f t="shared" si="1"/>
         <v>10984.610998690432</v>
       </c>
@@ -5707,10 +6471,10 @@
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>2017</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <f t="shared" si="1"/>
         <v>11538.466647992824</v>
       </c>
@@ -5718,10 +6482,10 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>2018</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <f t="shared" si="1"/>
         <v>12120.248282138988</v>
       </c>
@@ -5729,10 +6493,10 @@
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>2019</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <f t="shared" si="1"/>
         <v>12731.363958680522</v>
       </c>
@@ -5747,25 +6511,30 @@
       <c r="F60" s="4"/>
     </row>
     <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -5780,11 +6549,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5803,152 +6567,152 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>0.05</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="45"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>3000000</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2019</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f>$C$6/(1+$C$5)^B9</f>
         <v>3000000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2018</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:D14" si="0">$C$6/(1+$C$5)^B10</f>
         <v>2857142.8571428568</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>2350578</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="29">
         <v>3000000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2017</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>2721088.4353741496</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>0.05</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>0.05</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>0.05</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <v>0.05</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>2016</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>2591512.7955944277</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>2015</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>2468107.4243756458</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2014</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>2350578.4994053771</v>
       </c>
@@ -5966,10 +6730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N42"/>
+  <dimension ref="A3:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,475 +6743,1075 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="E8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D9" s="16">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>1990</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>1991</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>0.26819999999999999</v>
       </c>
-      <c r="D10" s="17">
-        <f>$C$6*(1+C9)</f>
+      <c r="D10" s="16">
+        <f>$D$6*(1+C9)</f>
         <v>1323700</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <f>G9/(1+F10)</f>
+        <v>969180.07365768554</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>1992</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.25140000000000001</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f>D10*(1+C10)</f>
         <v>1678716.34</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="11">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G11" s="16">
+        <f>G10/(1+F11)</f>
+        <v>931098.15895637008</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>1993</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.2261</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" ref="D12:D38" si="0">D11*(1+C11)</f>
         <v>2100745.627876</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="11">
+        <v>2016</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" ref="G12:G38" si="1">G11/(1+F12)</f>
+        <v>880471.07229916786</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1994</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>2575724.2143387636</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="12">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>824642.75760903605</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>1995</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>0.19470000000000001</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>3157837.8867793242</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="11">
+        <v>2014</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>795526.48814300215</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>3.1800000000000002E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>1996</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>0.21640000000000001</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>3772668.9233352588</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="11">
+        <v>2013</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>780386.98071709054</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>1997</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>0.17680000000000001</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>4589074.4783450086</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="E16" s="11">
+        <v>2012</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
+        <v>754434.43611474335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>1998</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>5400422.8461164068</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="E17" s="11">
+        <v>2011</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>727305.92510820716</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>1999</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>6302293.4614178473</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="E18" s="11">
+        <v>2010</v>
+      </c>
+      <c r="F18" s="12">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
+        <v>704958.73326374637</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>2000</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>6883995.1479067151</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="E19" s="11">
+        <v>2009</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
+        <v>691136.01300367294</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>2001</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>7486344.7233485524</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="E20" s="11">
+        <v>2008</v>
+      </c>
+      <c r="F20" s="12">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
+        <v>641902.12037120177</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>2002</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>8059050.0946847163</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="E21" s="11">
+        <v>2007</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="1"/>
+        <v>607344.23348585656</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>2003</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>8622377.6963031795</v>
       </c>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="E22" s="11">
+        <v>2006</v>
+      </c>
+      <c r="F22" s="12">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="1"/>
+        <v>581301.9080071369</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <v>2004</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>5.5E-2</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>9181970.0087932553</v>
       </c>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="E23" s="11">
         <v>2005</v>
       </c>
-      <c r="C24" s="13">
+      <c r="F23" s="12">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="D24" s="17">
+      <c r="G23" s="16">
+        <f t="shared" si="1"/>
+        <v>554412.88317323499</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>9686978.3592768833</v>
       </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="E24" s="11">
+        <v>2004</v>
+      </c>
+      <c r="F24" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
+        <v>525509.84187036497</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
         <v>2006</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>4.48E-2</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>10156796.809701812</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="E25" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F25" s="12">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
+        <v>493482.80765364354</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
         <v>2007</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>10611821.306776453</v>
       </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="E26" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="12">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="1"/>
+        <v>461241.99238587113</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
         <v>2008</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>11215633.939132033</v>
       </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="E27" s="11">
+        <v>2001</v>
+      </c>
+      <c r="F27" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="1"/>
+        <v>428464.46111088817</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>2009</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>0.02</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>12075873.062263459</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="E28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="12">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="1"/>
+        <v>393990.30906748341</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
         <v>2010</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <f t="shared" si="0"/>
         <v>12317390.523508728</v>
       </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="E29" s="11">
+        <v>1999</v>
+      </c>
+      <c r="F29" s="12">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="1"/>
+        <v>360697.89349765028</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
         <v>2011</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>3.73E-2</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>12707851.803103955</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="E30" s="11">
+        <v>1998</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="1"/>
+        <v>309081.3140511142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
         <v>2012</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>3.44E-2</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>13181854.675359735</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="E31" s="11">
+        <v>1997</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="1"/>
+        <v>262645.57618211606</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
         <v>2013</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>13635310.476192109</v>
       </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="E32" s="11">
+        <v>1996</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="1"/>
+        <v>215920.40133353838</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
         <v>2014</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>13899835.499430237</v>
       </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="E33" s="11">
+        <v>1995</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="1"/>
+        <v>180731.90033777381</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
         <v>2015</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <f t="shared" si="0"/>
         <v>14408569.478709383</v>
       </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="E34" s="11">
+        <v>1994</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="1"/>
+        <v>147415.90565886933</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
         <v>2016</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <f t="shared" si="0"/>
         <v>15384029.63241801</v>
       </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="E35" s="11">
+        <v>1993</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.2261</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="1"/>
+        <v>120231.55179746296</v>
+      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <v>2017</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>16268611.336282048</v>
       </c>
-      <c r="E36" s="17">
-        <f>$E$38/(1+C36)*(1+C35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="E36" s="11">
+        <v>1992</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="1"/>
+        <v>96077.634487344534</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
         <v>2018</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>16933997.539935984</v>
       </c>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="E37" s="11">
+        <v>1991</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="1"/>
+        <v>75759.055738325609</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
         <v>2019</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="17">
+      <c r="C38" s="11"/>
+      <c r="D38" s="46">
         <f t="shared" si="0"/>
         <v>17472498.661705948</v>
       </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="E38" s="11">
+        <v>1990</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="G38" s="46">
+        <f t="shared" si="1"/>
+        <v>57232.798774892806</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="G39" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="47"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I44" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+    </row>
+    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+    </row>
+    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+    </row>
+    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+    </row>
+    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B42:D42"/>
+  <mergeCells count="14">
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I45:Q54"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="I17:O29"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:O35"/>
+    <mergeCell ref="J37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -182,6 +183,63 @@
   <si>
     <t>c. ¿Qué implicaciones tiene esto en las decisiones económicas? De ejemplos.</t>
   </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una forma de financiamiento informal es el préstamo gota a gota. En el barrio, un tendero enfrenta problemas de liquidez y no puede pagar a sus proveedores. Para mantener los anaqueles surtidos él decide solicitar un préstamo con un gota a gota por $1’000.000. El acuerdo de pago estipula que el tendero debe pagar $50.000 pesos mensuales de interés al prestamista y puede devolver el principal completo cuando pueda. El principal se mantiene igual durante todo el compromiso financiero. Eso significa que, con las ganancias de invertir el principal, el tendero debe pagar los intereses y ahorrar para pagar el principal lo más rápido posible. El tendero logra pagar el principal en un año. </t>
+  </si>
+  <si>
+    <t>Interes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital </t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>a. Calcule la tasa de interés mensual, y el costo de la deuda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuacion usada: </t>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evalúe si el tendero debería tomar un préstamo con una entidad financiera formal enfocada en pequeños negocios por $3’000.000 al 1.53% de interés mensual durante un año.</t>
+    </r>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Tasa de interes:</t>
+  </si>
+  <si>
+    <t>Compuesto</t>
+  </si>
+  <si>
+    <t>Costo de deuda:</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +313,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -331,11 +395,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,8 +490,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,9 +513,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,29 +521,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3830,8 +3930,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3116751" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -4318,7 +4418,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6"/>
@@ -4441,8 +4541,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2938305" cy="346570"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -4522,7 +4622,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4535,7 +4635,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4549,7 +4649,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4562,7 +4662,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4576,7 +4676,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4592,7 +4692,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4606,7 +4706,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4619,7 +4719,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4633,7 +4733,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4646,7 +4746,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4660,7 +4760,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4676,7 +4776,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4690,7 +4790,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4703,7 +4803,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4717,7 +4817,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4730,7 +4830,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4744,7 +4844,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4764,7 +4864,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9"/>
@@ -5439,6 +5539,157 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="355738" cy="315792"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5486400" y="3448050"/>
+              <a:ext cx="355738" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5486400" y="3448050"/>
+              <a:ext cx="355738" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=𝐼/𝑃</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5711,13 +5962,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -5775,39 +6026,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -5817,20 +6068,20 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="K7" s="39" t="s">
         <v>20</v>
       </c>
@@ -5842,10 +6093,10 @@
       <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -5880,7 +6131,7 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="42" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="39"/>
@@ -6003,15 +6254,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -6024,13 +6275,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -6043,13 +6294,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -6062,13 +6313,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -6081,13 +6332,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -6158,7 +6409,7 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="39"/>
@@ -6173,13 +6424,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -6196,13 +6447,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -6212,10 +6463,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -6223,21 +6474,21 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
       <c r="K37" s="39" t="s">
         <v>26</v>
       </c>
@@ -6516,25 +6767,20 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -6549,6 +6795,11 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -6588,12 +6839,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6602,10 +6853,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -6732,8 +6983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,21 +6997,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -6768,28 +7019,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -6810,10 +7061,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -6831,10 +7082,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -7425,11 +7676,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -7590,20 +7841,20 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="49" t="s">
+      <c r="J37" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>2019</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="46">
+      <c r="D38" s="35">
         <f t="shared" si="0"/>
         <v>17472498.661705948</v>
       </c>
@@ -7613,188 +7864,196 @@
       <c r="F38" s="12">
         <v>0.32369999999999999</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="35">
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="G39" s="47" t="s">
+      <c r="E39" s="49"/>
+      <c r="G39" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
+      <c r="H39" s="48"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="49" t="s">
+      <c r="I44" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="I44:N44"/>
     <mergeCell ref="I45:Q54"/>
     <mergeCell ref="B3:N3"/>
@@ -7809,6 +8068,775 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I32:O35"/>
     <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J38:Q42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="53">
+        <v>0</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54">
+        <v>1000000</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D12+C13</f>
+        <v>1050000</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:D24" si="0">D13+C14</f>
+        <v>1100000</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>1150000</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>6</v>
+      </c>
+      <c r="C18" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>9</v>
+      </c>
+      <c r="C21" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>1450000</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>1550000</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="61">
+        <f>C24/D12</f>
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="60"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16">
+        <v>3000000</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="16">
+        <f>D37*$D$33</f>
+        <v>45900</v>
+      </c>
+      <c r="D38" s="16">
+        <f>D37+C38</f>
+        <v>3045900</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:C49" si="1">D38*$D$33</f>
+        <v>46602.27</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" ref="D39:D49" si="2">D38+C39</f>
+        <v>3092502.27</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="1"/>
+        <v>47315.284731</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="2"/>
+        <v>3139817.5547310002</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>4</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="1"/>
+        <v>48039.208587384303</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="2"/>
+        <v>3187856.7633183845</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>5</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="1"/>
+        <v>48774.208478771281</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="2"/>
+        <v>3236630.9717971557</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>6</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="1"/>
+        <v>49520.453868496479</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="2"/>
+        <v>3286151.4256656524</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>7</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="1"/>
+        <v>50278.116812684479</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="2"/>
+        <v>3336429.542478337</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" si="1"/>
+        <v>51047.371999918556</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="2"/>
+        <v>3387476.9144782554</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>9</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" si="1"/>
+        <v>51828.396791517305</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="2"/>
+        <v>3439305.3112697727</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" si="1"/>
+        <v>52621.371262427521</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="2"/>
+        <v>3491926.6825322001</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>11</v>
+      </c>
+      <c r="C48" s="16">
+        <f t="shared" si="1"/>
+        <v>53426.478242742662</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="2"/>
+        <v>3545353.160774943</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>12</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" si="1"/>
+        <v>54243.903359856624</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="2"/>
+        <v>3599597.0641347994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F36:M48"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J20:O26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -240,6 +241,63 @@
   <si>
     <t>Costo de deuda:</t>
   </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Asumiendo una tasa de interés del 8% compuesto anualmente, responda las siguientes preguntas:</t>
+  </si>
+  <si>
+    <t>a. ¿Cuánto dinero puede ser dado en préstamo ahora si $6.000 serán pagados al final de 5 años?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de interes: </t>
+  </si>
+  <si>
+    <t>Ecuacion usada:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinero del prestamo: </t>
+  </si>
+  <si>
+    <t>Valor futuro:</t>
+  </si>
+  <si>
+    <t>Valor presente</t>
+  </si>
+  <si>
+    <t>n:</t>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿Cuándo dinero será requerido en cuatro años para pagar un préstamo de $15.000 tomado ahora?</t>
+    </r>
+  </si>
+  <si>
+    <t>Valor presente:</t>
+  </si>
+  <si>
+    <t>Valor requerido</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +379,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +464,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,17 +555,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,6 +596,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,6 +606,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,39 +625,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5549,8 +5634,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355738" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -5586,6 +5671,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5637,7 +5723,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -5678,6 +5764,352 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑖=𝐼/𝑃</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="819520" cy="357277"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2590800" y="1543050"/>
+              <a:ext cx="819520" cy="357277"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(1+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2590800" y="1543050"/>
+              <a:ext cx="819520" cy="357277"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=𝐹/〖(1+𝑖)〗^𝑛 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="874663" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2619375" y="4019550"/>
+              <a:ext cx="874663" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐹</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(1+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2619375" y="4019550"/>
+              <a:ext cx="874663" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐹=𝑝〖(1+𝑖)〗^𝑛</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -5962,13 +6394,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -6019,46 +6451,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -6068,35 +6500,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="K7" s="39" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="K7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -6131,12 +6563,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -6254,15 +6686,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -6275,13 +6707,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -6294,13 +6726,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -6313,13 +6745,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -6332,13 +6764,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -6409,11 +6841,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -6424,13 +6856,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -6447,13 +6879,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -6463,10 +6895,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -6474,28 +6906,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="K37" s="39" t="s">
+      <c r="G37" s="48"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="K37" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -6767,20 +7199,25 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -6795,11 +7232,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -6821,16 +7253,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -6839,12 +7271,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6853,10 +7285,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -6997,21 +7429,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -7019,28 +7451,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -7061,10 +7493,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -7082,10 +7514,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -7277,13 +7709,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -7306,13 +7738,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -7335,13 +7767,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -7364,13 +7796,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -7393,13 +7825,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -7422,13 +7854,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -7451,13 +7883,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -7480,13 +7912,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -7509,13 +7941,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -7538,13 +7970,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -7567,13 +7999,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -7596,13 +8028,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -7625,13 +8057,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -7676,11 +8108,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -7703,13 +8135,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -7732,13 +8164,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -7761,13 +8193,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -7790,13 +8222,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -7841,13 +8273,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -7868,189 +8300,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="G39" s="48" t="s">
+      <c r="E39" s="59"/>
+      <c r="G39" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
+      <c r="H39" s="58"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8080,7 +8512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -8090,104 +8522,104 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -8199,29 +8631,29 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="53">
+      <c r="B12" s="39">
         <v>0</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54">
+      <c r="C12" s="39"/>
+      <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -8234,13 +8666,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8253,13 +8685,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -8272,13 +8704,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -8291,13 +8723,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -8322,13 +8754,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -8353,17 +8785,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="40"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="47"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8376,15 +8808,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="40"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8397,12 +8829,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8415,20 +8847,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="61">
+      <c r="G23" s="52"/>
+      <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8441,106 +8873,106 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="60"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="44"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58">
+      <c r="C33" s="61"/>
+      <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -8552,14 +8984,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -8569,14 +9001,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -8590,14 +9022,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -8611,14 +9043,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -8632,14 +9064,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -8653,14 +9085,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -8674,14 +9106,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -8695,14 +9127,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -8716,14 +9148,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -8737,14 +9169,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -8758,14 +9190,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -8779,14 +9211,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -8800,14 +9232,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -8824,6 +9256,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
     <mergeCell ref="B29:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
@@ -8834,9 +9269,281 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="68">
+        <f>H7/(1+D7)^G8</f>
+        <v>4083.4991822025181</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="68">
+        <f>D20*(1+D19)^G19</f>
+        <v>22039.921152000006</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="68"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F10:K14"/>
+    <mergeCell ref="F21:K26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -17,7 +17,8 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
-    <sheet name="7" sheetId="6" r:id="rId6"/>
+    <sheet name="8" sheetId="6" r:id="rId6"/>
+    <sheet name="10" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -298,6 +299,36 @@
   <si>
     <t>Valor requerido</t>
   </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usted presta $300.000:</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿Cuánto dinero recibirá en 5 años si prestó al 15% de interés anual?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +495,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,8 +614,26 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,9 +645,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,12 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,31 +665,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5786,8 +5820,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="819520" cy="357277"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -5823,6 +5857,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5905,7 +5940,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -5963,8 +5998,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="874663" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -6000,6 +6035,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6069,7 +6105,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -6394,13 +6430,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -6458,39 +6494,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -6500,35 +6536,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="K7" s="50" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="K7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -6563,12 +6599,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -6686,15 +6722,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -6707,13 +6743,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -6726,13 +6762,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -6745,13 +6781,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -6764,13 +6800,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -6841,11 +6877,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -6856,13 +6892,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -6879,13 +6915,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -6895,10 +6931,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -6906,28 +6942,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="K37" s="50" t="s">
+      <c r="G37" s="54"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="K37" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -7199,25 +7235,20 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -7232,6 +7263,11 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7253,16 +7289,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -7271,12 +7307,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -7285,10 +7321,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -7429,21 +7465,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -7451,28 +7487,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -7493,10 +7529,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -7514,10 +7550,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -7709,13 +7745,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -7738,13 +7774,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -7767,13 +7803,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -7796,13 +7832,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -7825,13 +7861,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -7854,13 +7890,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -7883,13 +7919,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -7912,13 +7948,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -7941,13 +7977,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -7970,13 +8006,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -7999,13 +8035,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -8028,13 +8064,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -8057,13 +8093,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -8108,11 +8144,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -8135,13 +8171,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -8164,13 +8200,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -8193,13 +8229,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -8222,13 +8258,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -8273,13 +8309,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="57" t="s">
+      <c r="J37" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -8300,189 +8336,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="G39" s="58" t="s">
+      <c r="E39" s="62"/>
+      <c r="G39" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8608,18 +8644,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -8631,13 +8667,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -8647,13 +8683,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -8666,13 +8702,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8685,13 +8721,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -8704,13 +8740,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -8723,13 +8759,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -8754,13 +8790,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -8785,17 +8821,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="47"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="53"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8808,15 +8844,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="53"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8829,12 +8865,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8847,20 +8883,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8873,65 +8909,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -8944,10 +8980,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -8968,11 +9004,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -8984,14 +9020,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -9001,14 +9037,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -9022,14 +9058,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -9043,14 +9079,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -9064,14 +9100,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -9085,14 +9121,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -9106,14 +9142,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -9127,14 +9163,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -9148,14 +9184,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -9169,14 +9205,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -9190,14 +9226,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -9211,14 +9247,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -9232,14 +9268,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -9256,11 +9292,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -9269,6 +9300,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9281,60 +9317,60 @@
   <dimension ref="A3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:K26"/>
+      <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -9348,95 +9384,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="68">
+      <c r="C12" s="59"/>
+      <c r="D12" s="67">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -9448,83 +9484,91 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="68">
+      <c r="C24" s="53"/>
+      <c r="D24" s="67">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="68"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="67"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -9536,17 +9580,52 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -626,15 +626,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,6 +636,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -652,6 +646,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,11 +665,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6424,7 +6424,7 @@
   <dimension ref="D4:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,39 +6494,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -6536,35 +6536,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="K7" s="52" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="K7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -6599,12 +6599,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -6722,15 +6722,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -6743,13 +6743,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -6762,13 +6762,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -6781,13 +6781,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -6800,13 +6800,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -6877,11 +6877,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -6892,13 +6892,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -6915,13 +6915,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -6931,10 +6931,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -6942,28 +6942,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="K37" s="52" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="K37" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -7235,20 +7235,25 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -7263,11 +7268,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7289,16 +7289,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -7311,8 +7311,8 @@
         <v>19</v>
       </c>
       <c r="G5" s="59"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -7323,8 +7323,8 @@
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A3:Q54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38:Q42"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7465,21 +7465,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -7487,28 +7487,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -7529,10 +7529,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -7550,10 +7550,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -7745,13 +7745,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -7774,13 +7774,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -7803,13 +7803,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -7832,13 +7832,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -7861,13 +7861,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -7890,13 +7890,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -7919,13 +7919,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -7948,13 +7948,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -7977,13 +7977,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -8006,13 +8006,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -8035,13 +8035,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -8064,13 +8064,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -8093,13 +8093,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -8171,13 +8171,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -8200,13 +8200,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -8229,13 +8229,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -8258,13 +8258,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -8336,14 +8336,14 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D39" s="62" t="s">
@@ -8354,51 +8354,51 @@
         <v>42</v>
       </c>
       <c r="H39" s="61"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
       <c r="G40" s="61"/>
       <c r="H40" s="61"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I44" s="60" t="s">
@@ -8411,114 +8411,114 @@
       <c r="N44" s="60"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8548,8 +8548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8558,75 +8558,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8644,18 +8644,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -8667,13 +8667,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -8683,13 +8683,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -8702,13 +8702,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8721,13 +8721,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -8740,13 +8740,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -8759,13 +8759,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -8825,13 +8825,13 @@
         <v>53</v>
       </c>
       <c r="G20" s="59"/>
-      <c r="H20" s="53"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="50"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8846,13 +8846,13 @@
       </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
-      <c r="H21" s="53"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="H21" s="50"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8865,12 +8865,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8883,20 +8883,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="57"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8909,33 +8909,33 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="57"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="65" t="s">
@@ -9004,11 +9004,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -9020,14 +9020,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -9037,14 +9037,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -9058,14 +9058,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -9079,14 +9079,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -9100,14 +9100,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -9121,14 +9121,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -9142,14 +9142,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -9163,14 +9163,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -9184,14 +9184,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -9205,14 +9205,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -9226,14 +9226,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -9247,14 +9247,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -9268,14 +9268,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -9292,6 +9292,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -9300,11 +9305,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9316,7 +9316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
@@ -9360,17 +9360,17 @@
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -9388,28 +9388,28 @@
         <v>63</v>
       </c>
       <c r="C9" s="59"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
@@ -9421,12 +9421,12 @@
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
@@ -9435,20 +9435,20 @@
       <c r="C13" s="59"/>
       <c r="D13" s="67"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="65" t="s">
@@ -9469,10 +9469,10 @@
       <c r="G17" s="65"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -9484,91 +9484,83 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="67">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="67"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -9580,6 +9572,14 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="5" sheetId="5" r:id="rId5"/>
     <sheet name="8" sheetId="6" r:id="rId6"/>
     <sheet name="10" sheetId="7" r:id="rId7"/>
+    <sheet name="13" sheetId="8" r:id="rId8"/>
+    <sheet name="16" sheetId="9" r:id="rId9"/>
+    <sheet name="17" sheetId="10" r:id="rId10"/>
+    <sheet name="18" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -306,13 +310,27 @@
     <t xml:space="preserve"> Usted presta $300.000:</t>
   </si>
   <si>
+    <t>Interes anual:</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
+  </si>
+  <si>
+    <t>N(Años)</t>
+  </si>
+  <si>
+    <t>N(años)</t>
+  </si>
+  <si>
+    <t>b. ¿Qué tasa de interés debe cobrar si en 5 años desea recibir $500.000?</t>
+  </si>
+  <si>
     <r>
       <t>a.</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -321,7 +339,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -329,15 +346,122 @@
       <t>¿Cuánto dinero recibirá en 5 años si prestó al 15% de interés anual?</t>
     </r>
   </si>
+  <si>
+    <t>Formulas Usadas</t>
+  </si>
+  <si>
+    <t>Valor Futuro:</t>
+  </si>
+  <si>
+    <t>c. ¿Con qué tasa de interés se dobla la base (el principal, el capital) en 5 años?</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Encontrar el valor presente del flujo de efectivo mostrado en el diagrama usando 3 factores de interés (lo que entendemos como fórmulas de matemáticas financieras), con una tasa de interés del 10% compuesta anualmente.</t>
+  </si>
+  <si>
+    <t>Flujo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al inicio de un compromiso financiero se invierten 1000 dólares. Durante 10 años, el flujo de pagos para retornar la inversión tiene el siguiente comportamiento. Se paga un valor X al final del año 1, estos pagos se incrementan cada año en 5 dólares hasta el año 5. Entre los años 6 y 10 se pagan 200 dólares anuales. Determine el valor del primer pago si la tasa de interés fue del 8%. </t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Pago 1</t>
+  </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Pago 2</t>
+  </si>
+  <si>
+    <t>Pago 3</t>
+  </si>
+  <si>
+    <t>Pago 4</t>
+  </si>
+  <si>
+    <t>Pago 5</t>
+  </si>
+  <si>
+    <t>Pago 6</t>
+  </si>
+  <si>
+    <t>Pago 7</t>
+  </si>
+  <si>
+    <t>Pago 8</t>
+  </si>
+  <si>
+    <t>Pago 9</t>
+  </si>
+  <si>
+    <t>Pago 10</t>
+  </si>
+  <si>
+    <t>Valores presentes</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>En el cumplimiento de un compromiso financiero usted está realizando pagos de 50 dólares cada dos meses. Usted acaba de pagar una cuota, queda un año para terminar los pagos y se cobra a una tasa de interés mensual de 2%. Se quiere renegociar para realizar solo 3 pagos iguales en lo que queda del compromiso cada cuatro meses. ¿cuál es el valor de la nueva cuota? ¿Cuáles son las ventajas y las desventajas de esta renegociación?</t>
+  </si>
+  <si>
+    <t>Interes (mes)</t>
+  </si>
+  <si>
+    <t>pago 1</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>pago 2</t>
+  </si>
+  <si>
+    <t>pago 3</t>
+  </si>
+  <si>
+    <t>pago 4</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>En el préstamo de $300.000 del ejercicio 10, se ha decidido hacer una renegociación de los pagos por medio de cinco cuotas anuales. ¿De cuánto serían las cuotas?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +533,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +581,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -490,12 +631,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,8 +765,20 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,9 +790,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,12 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,11 +810,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,8 +831,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
@@ -6158,6 +6338,526 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="885179" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4962525" y="781050"/>
+              <a:ext cx="885179" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐹</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(1+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4962525" y="781050"/>
+              <a:ext cx="885179" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐹=𝑃〖(1+𝑖)〗^𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="793486" cy="346954"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5038725" y="971550"/>
+              <a:ext cx="793486" cy="346954"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(1+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5038725" y="971550"/>
+              <a:ext cx="793486" cy="346954"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=𝐹/〖(1+𝑖)〗^𝑛 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="735522" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6267450" y="800100"/>
+              <a:ext cx="735522" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:deg>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐹</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6267450" y="800100"/>
+              <a:ext cx="735522" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=√(𝑛&amp;𝐹/𝑃)−1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6430,13 +7130,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -6483,50 +7183,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -6536,20 +7404,20 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
       <c r="K7" s="53" t="s">
         <v>20</v>
       </c>
@@ -6561,10 +7429,10 @@
       <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -6599,7 +7467,7 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="53"/>
@@ -6722,15 +7590,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -6743,13 +7611,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -6762,13 +7630,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -6781,13 +7649,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -6800,13 +7668,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -6877,7 +7745,7 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="53"/>
@@ -6892,13 +7760,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -6915,13 +7783,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -6931,10 +7799,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -6942,21 +7810,21 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
       <c r="K37" s="53" t="s">
         <v>26</v>
       </c>
@@ -7235,25 +8103,20 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -7268,6 +8131,11 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7307,12 +8175,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -7321,10 +8189,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -7465,21 +8333,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -7487,28 +8355,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -7529,10 +8397,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -7550,10 +8418,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -8144,11 +9012,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -8309,13 +9177,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -8336,189 +9204,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="G39" s="61" t="s">
+      <c r="E39" s="63"/>
+      <c r="G39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="61"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
+      <c r="H39" s="62"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8548,8 +9416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,11 +9512,11 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
@@ -8790,13 +9658,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -8821,11 +9689,11 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="50"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="54"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
@@ -8844,9 +9712,9 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="50"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="54"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
@@ -8883,10 +9751,10 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="55"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
@@ -8917,10 +9785,10 @@
       <c r="O24" s="53"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="55"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="44"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
@@ -8938,36 +9806,36 @@
       <c r="O26" s="53"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -8980,10 +9848,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -9004,11 +9872,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -9020,14 +9888,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -9037,14 +9905,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -9058,14 +9926,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -9079,14 +9947,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -9100,14 +9968,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -9121,14 +9989,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -9142,14 +10010,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -9163,14 +10031,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -9184,14 +10052,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -9205,14 +10073,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -9226,14 +10094,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -9247,14 +10115,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -9268,14 +10136,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -9285,18 +10153,13 @@
         <f t="shared" si="1"/>
         <v>54243.903359856624</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="71">
         <f t="shared" si="2"/>
         <v>3599597.0641347994</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -9305,6 +10168,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9316,7 +10184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
@@ -9326,51 +10194,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -9384,95 +10252,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="67">
+      <c r="C12" s="60"/>
+      <c r="D12" s="68">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -9484,83 +10352,91 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="67">
+      <c r="C24" s="54"/>
+      <c r="D24" s="68">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="67"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="68"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -9572,14 +10448,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9589,43 +10457,1034 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E5"/>
+  <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="70"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="G4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="72">
+        <v>0.15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="29">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="78">
+        <f>FV(C7,C9,,-C8)</f>
+        <v>603407.15624999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
+        <v>300000</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <f>$C$7*D12</f>
+        <v>45000</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D12+C13</f>
+        <v>345000</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" ref="C14:C17" si="0">$C$7*D13</f>
+        <v>51750</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:D17" si="1">D13+C14</f>
+        <v>396750</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>59512.5</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="1"/>
+        <v>456262.5</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>68439.375</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>524701.875</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>78705.28125</v>
+      </c>
+      <c r="D17" s="71">
+        <f t="shared" si="1"/>
+        <v>603407.15625</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="29">
+        <v>300000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="29">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="80">
+        <f>RATE(C24,,-C23,F23)</f>
+        <v>0.1075663432482912</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="29">
+        <v>300000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="29">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="80">
+        <f>RATE(C36,,-C35,F35)</f>
+        <v>0.14869835499702141</v>
+      </c>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E25:J29"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="E37:J40"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F11:J17"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I5:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="69"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79">
+        <f>D10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="81">
+        <f>PV($C$7,B10,,-E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="79">
+        <v>20</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79">
+        <f t="shared" ref="E11:E22" si="0">D11-C11</f>
+        <v>-20</v>
+      </c>
+      <c r="F11" s="81">
+        <f t="shared" ref="F11:F22" si="1">PV($C$7,B11,,-E11)</f>
+        <v>-18.18181818181818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79">
+        <v>20</v>
+      </c>
+      <c r="E13" s="79">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="81">
+        <f t="shared" si="1"/>
+        <v>15.02629601803155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79">
+        <v>40</v>
+      </c>
+      <c r="E14" s="79">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="81">
+        <f t="shared" si="1"/>
+        <v>27.32053821460282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>5</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79">
+        <v>60</v>
+      </c>
+      <c r="E15" s="79">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="81">
+        <f t="shared" si="1"/>
+        <v>37.255279383549301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>6</v>
+      </c>
+      <c r="C16" s="79">
+        <v>20</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F16" s="81">
+        <f t="shared" si="1"/>
+        <v>-11.289478601075544</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>7</v>
+      </c>
+      <c r="C17" s="79">
+        <v>20</v>
+      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="1"/>
+        <v>-10.263162364614129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>8</v>
+      </c>
+      <c r="C18" s="79">
+        <v>20</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="1"/>
+        <v>-9.3301476041946643</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>9</v>
+      </c>
+      <c r="C19" s="79">
+        <v>20</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="1"/>
+        <v>-8.4819523674496935</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>10</v>
+      </c>
+      <c r="C20" s="79">
+        <v>60</v>
+      </c>
+      <c r="D20" s="79">
+        <v>40</v>
+      </c>
+      <c r="E20" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="1"/>
+        <v>-7.7108657885906293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>11</v>
+      </c>
+      <c r="C21" s="79">
+        <v>60</v>
+      </c>
+      <c r="D21" s="79">
+        <v>40</v>
+      </c>
+      <c r="E21" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F21" s="81">
+        <f t="shared" si="1"/>
+        <v>-7.009877989627844</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>12</v>
+      </c>
+      <c r="C22" s="79">
+        <v>60</v>
+      </c>
+      <c r="D22" s="79">
+        <v>40</v>
+      </c>
+      <c r="E22" s="79">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="F22" s="81">
+        <f t="shared" si="1"/>
+        <v>-6.372616354207131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="81">
+        <f>SUM(F10:F22)</f>
+        <v>0.96219436460586127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="72">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="82">
+        <v>105.10745721222246</v>
+      </c>
+      <c r="D10" s="83">
+        <f>C10+5</f>
+        <v>110.10745721222246</v>
+      </c>
+      <c r="E10" s="83">
+        <f t="shared" ref="E10:G10" si="0">D10+5</f>
+        <v>115.10745721222246</v>
+      </c>
+      <c r="F10" s="83">
+        <f t="shared" si="0"/>
+        <v>120.10745721222246</v>
+      </c>
+      <c r="G10" s="83">
+        <f t="shared" si="0"/>
+        <v>125.10745721222246</v>
+      </c>
+      <c r="H10" s="11">
+        <v>200</v>
+      </c>
+      <c r="I10" s="11">
+        <v>200</v>
+      </c>
+      <c r="J10" s="11">
+        <v>200</v>
+      </c>
+      <c r="K10" s="11">
+        <v>200</v>
+      </c>
+      <c r="L10" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11">
+        <v>9</v>
+      </c>
+      <c r="L11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="84">
+        <f>PV($D$7,B11,,-B10)</f>
+        <v>1000</v>
+      </c>
+      <c r="C12" s="84">
+        <f t="shared" ref="C12:L12" si="1">PV($D$7,C11,,-C10)</f>
+        <v>97.321719640946711</v>
+      </c>
+      <c r="D12" s="84">
+        <f t="shared" si="1"/>
+        <v>94.399397472755865</v>
+      </c>
+      <c r="E12" s="84">
+        <f t="shared" si="1"/>
+        <v>91.376010716911836</v>
+      </c>
+      <c r="F12" s="84">
+        <f t="shared" si="1"/>
+        <v>88.282566594456185</v>
+      </c>
+      <c r="G12" s="84">
+        <f t="shared" si="1"/>
+        <v>85.146033202257826</v>
+      </c>
+      <c r="H12" s="84">
+        <f t="shared" si="1"/>
+        <v>126.03392537662091</v>
+      </c>
+      <c r="I12" s="84">
+        <f t="shared" si="1"/>
+        <v>116.69807905242676</v>
+      </c>
+      <c r="J12" s="84">
+        <f t="shared" si="1"/>
+        <v>108.05377690039515</v>
+      </c>
+      <c r="K12" s="84">
+        <f t="shared" si="1"/>
+        <v>100.0497934262918</v>
+      </c>
+      <c r="L12" s="84">
+        <f t="shared" si="1"/>
+        <v>92.638697616936852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="86">
+        <f>SUM(C12:L12)</f>
+        <v>999.99999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="B15:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="16" sheetId="9" r:id="rId9"/>
     <sheet name="17" sheetId="10" r:id="rId10"/>
     <sheet name="18" sheetId="11" r:id="rId11"/>
+    <sheet name="19" sheetId="12" r:id="rId12"/>
+    <sheet name="20" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -451,15 +453,86 @@
   <si>
     <t>En el préstamo de $300.000 del ejercicio 10, se ha decidido hacer una renegociación de los pagos por medio de cinco cuotas anuales. ¿De cuánto serían las cuotas?</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A(Datos)</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Abono</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Un banco ha prestado a una persona un monto de $10000, a una tasa de interés del 10% compuesto anualmente por siete años. Se acuerda pagar la deuda con pagos iguales al final de cada año. ¿Cuál es el valor de ese pago?</t>
+  </si>
+  <si>
+    <t>Falta Grafica</t>
+  </si>
+  <si>
+    <t>Falta grafica</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>A(datos)</t>
+  </si>
+  <si>
+    <t>a. Muestre cómo hallar ese valor con la fórmula de valor futuro</t>
+  </si>
+  <si>
+    <t>Fornula:</t>
+  </si>
+  <si>
+    <t>b. Muestre cómo hallar ese valor con la fórmula de pago uniforme</t>
+  </si>
+  <si>
+    <t>Tabla de Amortizacion</t>
+  </si>
+  <si>
+    <t>c. Muestre cómo hallar ese valor con una tabla de amortización.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una deuda está siendo amortizada al 5% mediante pagos de $500 anuales. Si el capital insoluto es $9.282,57 justamente después del k-ésimo pago, ¿cuánto era justamente después del (k-1) pago? ¿Cuánto será justamente después del (k+1) pago? Solo puede hacer la tabla de amortización para los periodos K-1, k y k+1. </t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>k+1</t>
+  </si>
+  <si>
+    <t>Capital(k-esimo)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>a. Intente usar buscar objetivo en Excel.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -637,7 +710,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,85 +841,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -865,6 +872,96 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -6348,8 +6445,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885179" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -6385,6 +6482,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6454,7 +6552,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -6512,8 +6610,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="793486" cy="346954"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -6549,6 +6647,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6631,7 +6730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -6689,8 +6788,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="735522" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3"/>
@@ -6726,6 +6825,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6805,7 +6905,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3"/>
@@ -6846,6 +6946,243 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑖=√(𝑛&amp;𝐹/𝑃)−1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1087669" cy="355995"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10048875" y="2486025"/>
+              <a:ext cx="1087669" cy="355995"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(1+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(1+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10048875" y="2486025"/>
+              <a:ext cx="1087669" cy="355995"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴=𝑃 (𝑖∗〖(1+𝑖)〗^𝑛)/(〖(1+𝑖)〗^𝑛−1)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -7130,13 +7467,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -7200,62 +7537,62 @@
       <c r="A2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="54">
         <v>0.02</v>
       </c>
     </row>
@@ -7306,46 +7643,778 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="90">
+        <f>PMT(C6,C7,-F6)</f>
+        <v>89494.665738458498</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="90">
+        <v>89494.665738458527</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="91">
+        <v>300000</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="91">
+        <f>$C$9</f>
+        <v>89494.665738458527</v>
+      </c>
+      <c r="D13" s="91">
+        <f>C13-E13</f>
+        <v>44494.665738458527</v>
+      </c>
+      <c r="E13" s="91">
+        <f>F12*$C$6</f>
+        <v>45000</v>
+      </c>
+      <c r="F13" s="91">
+        <f>F12-D13</f>
+        <v>255505.33426154149</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="39">
+        <v>2</v>
+      </c>
+      <c r="C14" s="91">
+        <f t="shared" ref="C14:C17" si="0">$C$9</f>
+        <v>89494.665738458527</v>
+      </c>
+      <c r="D14" s="91">
+        <f t="shared" ref="D14:D17" si="1">C14-E14</f>
+        <v>51168.865599227305</v>
+      </c>
+      <c r="E14" s="91">
+        <f t="shared" ref="E14:E17" si="2">F13*$C$6</f>
+        <v>38325.800139231222</v>
+      </c>
+      <c r="F14" s="91">
+        <f t="shared" ref="F14:F17" si="3">F13-D14</f>
+        <v>204336.46866231418</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="39">
+        <v>3</v>
+      </c>
+      <c r="C15" s="91">
+        <f t="shared" si="0"/>
+        <v>89494.665738458527</v>
+      </c>
+      <c r="D15" s="91">
+        <f t="shared" si="1"/>
+        <v>58844.195439111398</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" si="2"/>
+        <v>30650.470299347126</v>
+      </c>
+      <c r="F15" s="91">
+        <f t="shared" si="3"/>
+        <v>145492.27322320279</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
+        <v>4</v>
+      </c>
+      <c r="C16" s="91">
+        <f t="shared" si="0"/>
+        <v>89494.665738458527</v>
+      </c>
+      <c r="D16" s="91">
+        <f t="shared" si="1"/>
+        <v>67670.824754978108</v>
+      </c>
+      <c r="E16" s="91">
+        <f t="shared" si="2"/>
+        <v>21823.840983480419</v>
+      </c>
+      <c r="F16" s="91">
+        <f t="shared" si="3"/>
+        <v>77821.448468224684</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="39">
+        <v>5</v>
+      </c>
+      <c r="C17" s="91">
+        <f t="shared" si="0"/>
+        <v>89494.665738458527</v>
+      </c>
+      <c r="D17" s="91">
+        <f t="shared" si="1"/>
+        <v>77821.448468224829</v>
+      </c>
+      <c r="E17" s="91">
+        <f t="shared" si="2"/>
+        <v>11673.217270233703</v>
+      </c>
+      <c r="F17" s="91">
+        <f>F16-D17</f>
+        <v>-1.4551915228366852E-10</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G4"/>
+    <mergeCell ref="H8:M17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="90">
+        <f>PMT(C6,F7,-F6)</f>
+        <v>2054.0549970059569</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="L11" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="90">
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="H14" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="94">
+        <f>PMT(C6,F7,-F6,0)</f>
+        <v>2054.0549970059569</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D17" s="40">
+        <f>C17-E17</f>
+        <v>1054.0549970059565</v>
+      </c>
+      <c r="E17" s="40">
+        <f>F16*$C$6</f>
+        <v>1000</v>
+      </c>
+      <c r="F17" s="40">
+        <f>F16-D17</f>
+        <v>8945.9450029940435</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="90">
+        <f>(F6*C6*((1+C6)^F7))/(((1+C6)^F7)-1)</f>
+        <v>2054.0549970059556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" ref="D18:D23" si="0">C18-E18</f>
+        <v>1159.460496706552</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" ref="E18:E23" si="1">F17*$C$6</f>
+        <v>894.59450029940444</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" ref="F18:F23" si="2">F17-D18</f>
+        <v>7786.484506287492</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D19" s="40">
+        <f t="shared" si="0"/>
+        <v>1275.4065463772072</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="1"/>
+        <v>778.64845062874929</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="2"/>
+        <v>6511.0779599102843</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" si="0"/>
+        <v>1402.9472010149279</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="1"/>
+        <v>651.10779599102852</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="2"/>
+        <v>5108.1307588953568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>5</v>
+      </c>
+      <c r="C21" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" si="0"/>
+        <v>1543.2419211164208</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="1"/>
+        <v>510.8130758895357</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="2"/>
+        <v>3564.8888377789362</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>6</v>
+      </c>
+      <c r="C22" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="0"/>
+        <v>1697.5661132280629</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="1"/>
+        <v>356.48888377789365</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="2"/>
+        <v>1867.3227245508733</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>7</v>
+      </c>
+      <c r="C23" s="40">
+        <f>$C$12</f>
+        <v>2054.0549970059565</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="0"/>
+        <v>1867.3227245508692</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="1"/>
+        <v>186.73227245508735</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="2"/>
+        <v>4.0927261579781771E-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="95">
+        <v>9282.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <f>$C$8</f>
+        <v>500</v>
+      </c>
+      <c r="D12" s="96">
+        <f>C12-E12</f>
+        <v>500</v>
+      </c>
+      <c r="E12" s="97">
+        <f>F11*C7</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="98">
+        <f>F7</f>
+        <v>9282.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <f>$C$8</f>
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <f>C13-E13</f>
+        <v>35.871499999999969</v>
+      </c>
+      <c r="E13" s="97">
+        <f>F12*$C$7</f>
+        <v>464.12850000000003</v>
+      </c>
+      <c r="F13" s="98">
+        <f>F12-D13</f>
+        <v>9246.6985000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H5"/>
+    <mergeCell ref="H8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7362,39 +8431,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -7404,35 +8473,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="K7" s="53" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="K7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -7467,12 +8536,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -7590,15 +8659,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -7611,13 +8680,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -7630,13 +8699,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -7649,13 +8718,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -7668,13 +8737,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -7745,11 +8814,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -7760,13 +8829,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -7783,13 +8852,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -7799,10 +8868,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -7810,28 +8879,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="53" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="K37" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -8103,20 +9172,25 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -8131,11 +9205,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -8157,16 +9226,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -8175,12 +9244,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -8189,10 +9258,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -8333,21 +9402,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -8355,28 +9424,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -8397,10 +9466,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -8418,10 +9487,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -8613,13 +9682,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -8642,13 +9711,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -8671,13 +9740,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -8700,13 +9769,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8729,13 +9798,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8758,13 +9827,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8787,13 +9856,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8816,13 +9885,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -8845,13 +9914,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -8874,13 +9943,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -8903,13 +9972,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -8932,13 +10001,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -8961,13 +10030,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -9012,11 +10081,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -9039,13 +10108,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -9068,13 +10137,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -9097,13 +10166,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -9126,13 +10195,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -9177,13 +10246,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="61" t="s">
+      <c r="J37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -9204,189 +10273,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="G39" s="62" t="s">
+      <c r="E39" s="78"/>
+      <c r="G39" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="62"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
+      <c r="H39" s="77"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -9426,75 +10495,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9512,18 +10581,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -9535,13 +10604,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -9551,13 +10620,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -9570,13 +10639,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -9589,13 +10658,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -9608,13 +10677,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -9627,13 +10696,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -9658,13 +10727,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -9689,17 +10758,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="54"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="66"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9712,15 +10781,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="54"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="66"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -9733,12 +10802,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9751,20 +10820,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="58"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -9777,65 +10846,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="58"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -9848,10 +10917,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -9872,11 +10941,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -9888,14 +10957,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -9905,14 +10974,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -9926,14 +10995,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -9947,14 +11016,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -9968,14 +11037,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -9989,14 +11058,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -10010,14 +11079,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -10031,14 +11100,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -10052,14 +11121,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -10073,14 +11142,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -10094,14 +11163,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -10115,14 +11184,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -10136,14 +11205,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -10153,13 +11222,18 @@
         <f t="shared" si="1"/>
         <v>54243.903359856624</v>
       </c>
-      <c r="D49" s="71">
+      <c r="D49" s="53">
         <f t="shared" si="2"/>
         <v>3599597.0641347994</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -10168,11 +11242,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -10194,51 +11263,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -10252,95 +11321,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="68">
+      <c r="C12" s="75"/>
+      <c r="D12" s="83">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -10352,91 +11421,83 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="68">
+      <c r="C24" s="66"/>
+      <c r="D24" s="83">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="68"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="83"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -10448,6 +11509,14 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -10473,50 +11542,50 @@
       <c r="A3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="87"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="G4" s="54" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="G4" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="54">
         <v>0.15</v>
       </c>
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -10525,7 +11594,7 @@
       <c r="C8" s="29">
         <v>300000</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="56">
         <f>FV(C7,C9,,-C8)</f>
         <v>603407.15624999977</v>
       </c>
@@ -10548,11 +11617,11 @@
       <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -10562,11 +11631,11 @@
       <c r="D12" s="16">
         <v>300000</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -10580,11 +11649,11 @@
         <f>D12+C13</f>
         <v>345000</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -10598,11 +11667,11 @@
         <f t="shared" ref="D14:D17" si="1">D13+C14</f>
         <v>396750</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -10616,11 +11685,11 @@
         <f t="shared" si="1"/>
         <v>456262.5</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -10634,11 +11703,11 @@
         <f t="shared" si="1"/>
         <v>524701.875</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -10648,35 +11717,35 @@
         <f t="shared" si="0"/>
         <v>78705.28125</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="53">
         <f t="shared" si="1"/>
         <v>603407.15625</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -10701,65 +11770,65 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="58">
         <f>RATE(C24,,-C23,F23)</f>
         <v>0.1075663432482912</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -10784,43 +11853,43 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="58">
         <f>RATE(C36,,-C35,F35)</f>
         <v>0.14869835499702141</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10856,44 +11925,44 @@
       <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="54">
         <v>0.1</v>
       </c>
     </row>
@@ -10918,13 +11987,13 @@
       <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="59">
         <f>PV($C$7,B10,,-E10)</f>
         <v>0</v>
       </c>
@@ -10933,15 +12002,15 @@
       <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="57">
         <v>20</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57">
         <f t="shared" ref="E11:E22" si="0">D11-C11</f>
         <v>-20</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="59">
         <f t="shared" ref="F11:F22" si="1">PV($C$7,B11,,-E11)</f>
         <v>-18.18181818181818</v>
       </c>
@@ -10950,13 +12019,13 @@
       <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10965,15 +12034,15 @@
       <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57">
         <v>20</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="59">
         <f t="shared" si="1"/>
         <v>15.02629601803155</v>
       </c>
@@ -10982,15 +12051,15 @@
       <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57">
         <v>40</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="57">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="59">
         <f t="shared" si="1"/>
         <v>27.32053821460282</v>
       </c>
@@ -10999,15 +12068,15 @@
       <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57">
         <v>60</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="59">
         <f t="shared" si="1"/>
         <v>37.255279383549301</v>
       </c>
@@ -11016,15 +12085,15 @@
       <c r="B16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="57">
         <v>20</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="59">
         <f t="shared" si="1"/>
         <v>-11.289478601075544</v>
       </c>
@@ -11033,15 +12102,15 @@
       <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="57">
         <v>20</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="59">
         <f t="shared" si="1"/>
         <v>-10.263162364614129</v>
       </c>
@@ -11050,15 +12119,15 @@
       <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="57">
         <v>20</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="59">
         <f t="shared" si="1"/>
         <v>-9.3301476041946643</v>
       </c>
@@ -11067,15 +12136,15 @@
       <c r="B19" s="11">
         <v>9</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="57">
         <v>20</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="59">
         <f t="shared" si="1"/>
         <v>-8.4819523674496935</v>
       </c>
@@ -11084,17 +12153,17 @@
       <c r="B20" s="11">
         <v>10</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="57">
         <v>60</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="57">
         <v>40</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="59">
         <f t="shared" si="1"/>
         <v>-7.7108657885906293</v>
       </c>
@@ -11103,17 +12172,17 @@
       <c r="B21" s="11">
         <v>11</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="57">
         <v>60</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="57">
         <v>40</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="59">
         <f t="shared" si="1"/>
         <v>-7.009877989627844</v>
       </c>
@@ -11122,23 +12191,23 @@
       <c r="B22" s="11">
         <v>12</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="57">
         <v>60</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="57">
         <v>40</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="57">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="59">
         <f t="shared" si="1"/>
         <v>-6.372616354207131</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="81">
+      <c r="F23" s="59">
         <f>SUM(F10:F22)</f>
         <v>0.96219436460586127</v>
       </c>
@@ -11156,7 +12225,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11165,102 +12234,105 @@
       <c r="A2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="54">
         <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="57" t="s">
         <v>102</v>
       </c>
     </row>
@@ -11268,22 +12340,22 @@
       <c r="B10" s="11">
         <v>1000</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="60">
         <v>105.10745721222246</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="61">
         <f>C10+5</f>
         <v>110.10745721222246</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="61">
         <f t="shared" ref="E10:G10" si="0">D10+5</f>
         <v>115.10745721222246</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="61">
         <f t="shared" si="0"/>
         <v>120.10745721222246</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="61">
         <f t="shared" si="0"/>
         <v>125.10745721222246</v>
       </c>
@@ -11304,7 +12376,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="57" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="11">
@@ -11342,143 +12414,143 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="62">
         <f>PV($D$7,B11,,-B10)</f>
         <v>1000</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="62">
         <f t="shared" ref="C12:L12" si="1">PV($D$7,C11,,-C10)</f>
         <v>97.321719640946711</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="62">
         <f t="shared" si="1"/>
         <v>94.399397472755865</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="62">
         <f t="shared" si="1"/>
         <v>91.376010716911836</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="62">
         <f t="shared" si="1"/>
         <v>88.282566594456185</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="62">
         <f t="shared" si="1"/>
         <v>85.146033202257826</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="62">
         <f t="shared" si="1"/>
         <v>126.03392537662091</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="62">
         <f t="shared" si="1"/>
         <v>116.69807905242676</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="62">
         <f t="shared" si="1"/>
         <v>108.05377690039515</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="62">
         <f t="shared" si="1"/>
         <v>100.0497934262918</v>
       </c>
-      <c r="L12" s="84">
+      <c r="L12" s="62">
         <f t="shared" si="1"/>
         <v>92.638697616936852</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="86">
+      <c r="L13" s="64">
         <f>SUM(C12:L12)</f>
         <v>999.99999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -531,8 +531,8 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -872,8 +872,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,9 +903,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,12 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,11 +923,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,21 +956,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -6968,8 +6968,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1087669" cy="355995"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -7005,6 +7005,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7142,7 +7143,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -7467,13 +7468,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -7537,56 +7538,56 @@
       <c r="A2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -7655,33 +7656,33 @@
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="I3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7709,38 +7710,38 @@
       <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="65">
         <f>PMT(C6,C7,-F6)</f>
         <v>89494.665738458498</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="65">
         <v>89494.665738458527</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
@@ -7758,12 +7759,12 @@
       <c r="F11" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -7772,150 +7773,150 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="91">
+      <c r="F12" s="66">
         <v>300000</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>1</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="66">
         <f>$C$9</f>
         <v>89494.665738458527</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="66">
         <f>C13-E13</f>
         <v>44494.665738458527</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="66">
         <f>F12*$C$6</f>
         <v>45000</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="66">
         <f>F12-D13</f>
         <v>255505.33426154149</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>2</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="66">
         <f t="shared" ref="C14:C17" si="0">$C$9</f>
         <v>89494.665738458527</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="66">
         <f t="shared" ref="D14:D17" si="1">C14-E14</f>
         <v>51168.865599227305</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="66">
         <f t="shared" ref="E14:E17" si="2">F13*$C$6</f>
         <v>38325.800139231222</v>
       </c>
-      <c r="F14" s="91">
-        <f t="shared" ref="F14:F17" si="3">F13-D14</f>
+      <c r="F14" s="66">
+        <f t="shared" ref="F14:F16" si="3">F13-D14</f>
         <v>204336.46866231418</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>3</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="66">
         <f t="shared" si="0"/>
         <v>89494.665738458527</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="66">
         <f t="shared" si="1"/>
         <v>58844.195439111398</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="66">
         <f t="shared" si="2"/>
         <v>30650.470299347126</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="66">
         <f t="shared" si="3"/>
         <v>145492.27322320279</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
         <v>4</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="66">
         <f t="shared" si="0"/>
         <v>89494.665738458527</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="66">
         <f t="shared" si="1"/>
         <v>67670.824754978108</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="66">
         <f t="shared" si="2"/>
         <v>21823.840983480419</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="66">
         <f t="shared" si="3"/>
         <v>77821.448468224684</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>5</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="66">
         <f t="shared" si="0"/>
         <v>89494.665738458527</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="66">
         <f t="shared" si="1"/>
         <v>77821.448468224829</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="66">
         <f t="shared" si="2"/>
         <v>11673.217270233703</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="66">
         <f>F16-D17</f>
         <v>-1.4551915228366852E-10</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7941,30 +7942,30 @@
       <c r="A2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="I4" t="s">
         <v>122</v>
       </c>
@@ -7987,7 +7988,7 @@
       <c r="B7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="65">
         <f>PMT(C6,F7,-F6)</f>
         <v>2054.0549970059569</v>
       </c>
@@ -7999,63 +8000,63 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="L11" s="85" t="s">
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="L11" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="65">
         <v>2054.0549970059565</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="H14" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="67">
         <f>PMT(C6,F7,-F6,0)</f>
         <v>2054.0549970059569</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="L14" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
@@ -8073,9 +8074,9 @@
       <c r="F15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -8093,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="40">
-        <f>$C$12</f>
+        <f t="shared" ref="C17:C23" si="0">$C$12</f>
         <v>2054.0549970059565</v>
       </c>
       <c r="D17" s="40">
@@ -8111,7 +8112,7 @@
       <c r="L17" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="65">
         <f>(F6*C6*((1+C6)^F7))/(((1+C6)^F7)-1)</f>
         <v>2054.0549970059556</v>
       </c>
@@ -8121,19 +8122,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D18" s="40">
-        <f t="shared" ref="D18:D23" si="0">C18-E18</f>
+        <f t="shared" ref="D18:D23" si="1">C18-E18</f>
         <v>1159.460496706552</v>
       </c>
       <c r="E18" s="40">
-        <f t="shared" ref="E18:E23" si="1">F17*$C$6</f>
+        <f t="shared" ref="E18:E23" si="2">F17*$C$6</f>
         <v>894.59450029940444</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" ref="F18:F23" si="2">F17-D18</f>
+        <f t="shared" ref="F18:F23" si="3">F17-D18</f>
         <v>7786.484506287492</v>
       </c>
     </row>
@@ -8142,19 +8143,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1275.4065463772072</v>
       </c>
       <c r="E19" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>778.64845062874929</v>
       </c>
       <c r="F19" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6511.0779599102843</v>
       </c>
     </row>
@@ -8163,19 +8164,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D20" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1402.9472010149279</v>
       </c>
       <c r="E20" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>651.10779599102852</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5108.1307588953568</v>
       </c>
     </row>
@@ -8184,19 +8185,19 @@
         <v>5</v>
       </c>
       <c r="C21" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D21" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1543.2419211164208</v>
       </c>
       <c r="E21" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>510.8130758895357</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3564.8888377789362</v>
       </c>
     </row>
@@ -8205,19 +8206,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D22" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1697.5661132280629</v>
       </c>
       <c r="E22" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>356.48888377789365</v>
       </c>
       <c r="F22" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1867.3227245508733</v>
       </c>
     </row>
@@ -8226,19 +8227,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="40">
-        <f>$C$12</f>
+        <f t="shared" si="0"/>
         <v>2054.0549970059565</v>
       </c>
       <c r="D23" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1867.3227245508692</v>
       </c>
       <c r="E23" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186.73227245508735</v>
       </c>
       <c r="F23" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0927261579781771E-12</v>
       </c>
     </row>
@@ -8262,7 +8263,7 @@
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8274,42 +8275,42 @@
       <c r="A2" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -8321,7 +8322,7 @@
       <c r="E7" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="68">
         <v>9282.57</v>
       </c>
     </row>
@@ -8332,15 +8333,15 @@
       <c r="C8">
         <v>500</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="85"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8364,8 +8365,8 @@
       <c r="B11" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97">
+      <c r="E11" s="70"/>
+      <c r="F11" s="70">
         <v>0</v>
       </c>
     </row>
@@ -8377,15 +8378,15 @@
         <f>$C$8</f>
         <v>500</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="69">
         <f>C12-E12</f>
         <v>500</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="70">
         <f>F11*C7</f>
         <v>0</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="71">
         <f>F7</f>
         <v>9282.57</v>
       </c>
@@ -8402,11 +8403,11 @@
         <f>C13-E13</f>
         <v>35.871499999999969</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="70">
         <f>F12*$C$7</f>
         <v>464.12850000000003</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="71">
         <f>F12-D13</f>
         <v>9246.6985000000004</v>
       </c>
@@ -8473,35 +8474,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="K7" s="69" t="s">
+      <c r="G7" s="77"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="K7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -8536,12 +8537,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -8659,15 +8660,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -8680,13 +8681,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8699,13 +8700,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8718,13 +8719,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8737,13 +8738,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8814,11 +8815,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -8829,13 +8830,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -8852,13 +8853,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -8868,10 +8869,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -8879,28 +8880,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="71"/>
+      <c r="C37" s="80"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="67" t="s">
+      <c r="F37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="K37" s="69" t="s">
+      <c r="G37" s="77"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="K37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -9172,25 +9173,20 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -9205,6 +9201,11 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9226,16 +9227,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -9244,12 +9245,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -9258,10 +9259,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -9402,21 +9403,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -9424,28 +9425,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -9466,10 +9467,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -9487,10 +9488,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9682,13 +9683,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9711,13 +9712,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -9740,13 +9741,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -9769,13 +9770,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9798,13 +9799,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -9827,13 +9828,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9856,13 +9857,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -9885,13 +9886,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -9914,13 +9915,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -9943,13 +9944,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -9972,13 +9973,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -10001,13 +10002,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -10030,13 +10031,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -10081,11 +10082,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -10108,13 +10109,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -10137,13 +10138,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -10166,13 +10167,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -10195,13 +10196,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -10246,13 +10247,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -10273,189 +10274,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="G39" s="77" t="s">
+      <c r="E39" s="85"/>
+      <c r="G39" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="77"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
+      <c r="H39" s="84"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="76" t="s">
+      <c r="I44" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10495,75 +10496,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10581,18 +10582,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -10604,13 +10605,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -10620,13 +10621,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -10639,13 +10640,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -10658,13 +10659,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -10677,13 +10678,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -10696,13 +10697,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -10727,13 +10728,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -10758,17 +10759,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="66"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="76"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -10781,15 +10782,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="66"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="76"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -10802,12 +10803,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -10820,20 +10821,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="71"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -10846,65 +10847,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="71"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -10917,10 +10918,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -10941,11 +10942,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -10957,14 +10958,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -10974,14 +10975,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -10995,14 +10996,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -11016,14 +11017,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -11037,14 +11038,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -11058,14 +11059,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -11079,14 +11080,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -11100,14 +11101,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -11121,14 +11122,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -11142,14 +11143,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -11163,14 +11164,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -11184,14 +11185,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -11205,14 +11206,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -11229,11 +11230,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -11242,6 +11238,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11263,51 +11264,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -11321,95 +11322,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="83">
+      <c r="C12" s="82"/>
+      <c r="D12" s="90">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="83"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -11421,83 +11422,91 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="83">
+      <c r="C24" s="76"/>
+      <c r="D24" s="90">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="83"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="90"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -11509,14 +11518,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11542,36 +11543,36 @@
       <c r="A3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="94"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="G4" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -11583,9 +11584,9 @@
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -11617,11 +11618,11 @@
       <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -11631,11 +11632,11 @@
       <c r="D12" s="16">
         <v>300000</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -11649,11 +11650,11 @@
         <f>D12+C13</f>
         <v>345000</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -11667,11 +11668,11 @@
         <f t="shared" ref="D14:D17" si="1">D13+C14</f>
         <v>396750</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -11685,11 +11686,11 @@
         <f t="shared" si="1"/>
         <v>456262.5</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -11703,11 +11704,11 @@
         <f t="shared" si="1"/>
         <v>524701.875</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -11721,25 +11722,25 @@
         <f t="shared" si="1"/>
         <v>603407.15625</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="55"/>
@@ -11770,12 +11771,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -11785,50 +11786,50 @@
         <f>RATE(C24,,-C23,F23)</f>
         <v>0.1075663432482912</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -11853,12 +11854,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -11868,28 +11869,28 @@
         <f>RATE(C36,,-C35,F35)</f>
         <v>0.14869835499702141</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11925,38 +11926,38 @@
       <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -12234,53 +12235,53 @@
       <c r="A2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
       <c r="L3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="55"/>
@@ -12469,88 +12470,88 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="18" sheetId="11" r:id="rId11"/>
     <sheet name="19" sheetId="12" r:id="rId12"/>
     <sheet name="20" sheetId="13" r:id="rId13"/>
+    <sheet name="21" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -475,9 +476,6 @@
     <t>Un banco ha prestado a una persona un monto de $10000, a una tasa de interés del 10% compuesto anualmente por siete años. Se acuerda pagar la deuda con pagos iguales al final de cada año. ¿Cuál es el valor de ese pago?</t>
   </si>
   <si>
-    <t>Falta Grafica</t>
-  </si>
-  <si>
     <t>Falta grafica</t>
   </si>
   <si>
@@ -521,6 +519,24 @@
   </si>
   <si>
     <t>a. Intente usar buscar objetivo en Excel.</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Considere el siguiente diagrama de flujo de efectivo. ¿Cuál es el valor de C que hace a la serie de ingresos equivalente a la serie de egresos? La tasa de interés es del 12% compuesta anualmente</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -662,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -703,6 +719,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -710,7 +763,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,17 +934,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,6 +959,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -910,6 +969,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,11 +988,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,6 +1025,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6960,6 +7046,1969 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="5524500"/>
+          <a:ext cx="9153525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="5334000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="5353050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="5353050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="5343525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="5334000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="5334000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="752475" y="4391025"/>
+          <a:ext cx="9525" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="6086475"/>
+          <a:ext cx="2" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9530</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2295525" y="6105527"/>
+          <a:ext cx="5" cy="323848"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3048000" y="6086478"/>
+          <a:ext cx="4" cy="419097"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector recto de flecha 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3810000" y="6086478"/>
+          <a:ext cx="4" cy="504822"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector recto de flecha 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="6096003"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5334000" y="6105528"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conector recto de flecha 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6096000" y="6105528"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Conector recto de flecha 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6867525" y="6105528"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Conector recto de flecha 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7620000" y="6105528"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Conector recto de flecha 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8382000" y="6105528"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Conector recto de flecha 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9153525" y="6096003"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Conector recto de flecha 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9915525" y="6096003"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Conector recto 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="7058025"/>
+          <a:ext cx="4591050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conector recto 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="6943725"/>
+          <a:ext cx="9525" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Conector recto 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="6943725"/>
+          <a:ext cx="9525" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="506229" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="CuadroTexto 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="4362450"/>
+          <a:ext cx="506229" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="459036" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="CuadroTexto 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="6905625"/>
+          <a:ext cx="459036" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x+15</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="459036" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CuadroTexto 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="7019925"/>
+          <a:ext cx="459036" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x+20</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="CuadroTexto 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="6686550"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387542" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CuadroTexto 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="6772275"/>
+          <a:ext cx="387542" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x+5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="459036" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="CuadroTexto 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="6829425"/>
+          <a:ext cx="459036" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x+10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="399148" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="CuadroTexto 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="7400925"/>
+          <a:ext cx="399148" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>200</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565283" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="CuadroTexto 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="5562600"/>
+          <a:ext cx="565283" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> 15%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="744306" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="CuadroTexto 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="7239000"/>
+          <a:ext cx="744306" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>x= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>105,11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -7468,13 +9517,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -7538,56 +9587,56 @@
       <c r="A2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -7656,33 +9705,33 @@
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7714,12 +9763,12 @@
         <f>PMT(C6,C7,-F6)</f>
         <v>89494.665738458498</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -7728,20 +9777,20 @@
       <c r="C9" s="65">
         <v>89494.665738458527</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
@@ -7759,12 +9808,12 @@
       <c r="F11" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -7776,12 +9825,12 @@
       <c r="F12" s="66">
         <v>300000</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
@@ -7803,12 +9852,12 @@
         <f>F12-D13</f>
         <v>255505.33426154149</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
@@ -7830,12 +9879,12 @@
         <f t="shared" ref="F14:F16" si="3">F13-D14</f>
         <v>204336.46866231418</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
@@ -7857,12 +9906,12 @@
         <f t="shared" si="3"/>
         <v>145492.27322320279</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
@@ -7884,12 +9933,12 @@
         <f t="shared" si="3"/>
         <v>77821.448468224684</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
@@ -7911,12 +9960,12 @@
         <f>F16-D17</f>
         <v>-1.4551915228366852E-10</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7942,32 +9991,32 @@
       <c r="A2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7978,7 +10027,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="29">
         <v>10000</v>
@@ -8000,51 +10049,51 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="L11" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
+      <c r="H11" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="L11" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="65">
         <v>2054.0549970059565</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="B14" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
       <c r="H14" s="51" t="s">
         <v>114</v>
       </c>
@@ -8052,11 +10101,11 @@
         <f>PMT(C6,F7,-F6,0)</f>
         <v>2054.0549970059569</v>
       </c>
-      <c r="L14" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
@@ -8074,9 +10123,9 @@
       <c r="F15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -8262,8 +10311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8273,44 +10322,44 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -8320,7 +10369,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="68">
         <v>9282.57</v>
@@ -8333,15 +10382,15 @@
       <c r="C8">
         <v>500</v>
       </c>
-      <c r="H8" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="92"/>
+      <c r="H8" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="96"/>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8363,7 +10412,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="70">
@@ -8372,7 +10421,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <f>$C$8</f>
@@ -8390,10 +10439,13 @@
         <f>F7</f>
         <v>9282.57</v>
       </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <f>$C$8</f>
@@ -8418,6 +10470,355 @@
     <mergeCell ref="H8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="72">
+        <v>8</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="109">
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="75">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="103">
+        <f>PV($F$6,B10,,-E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="75">
+        <v>1</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75">
+        <v>800</v>
+      </c>
+      <c r="E11" s="75">
+        <f>D11-C11</f>
+        <v>800</v>
+      </c>
+      <c r="F11" s="103">
+        <f t="shared" ref="F11:F18" si="0">PV($F$6,B11,,-E11)</f>
+        <v>714.28571428571422</v>
+      </c>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="75">
+        <v>2</v>
+      </c>
+      <c r="C12" s="61">
+        <f>$C$7</f>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D12" s="75">
+        <v>800</v>
+      </c>
+      <c r="E12" s="61">
+        <f t="shared" ref="E12:E18" si="1">D12-C12</f>
+        <v>-364.78065691716188</v>
+      </c>
+      <c r="F12" s="103">
+        <f t="shared" si="0"/>
+        <v>-290.8009063434007</v>
+      </c>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="75">
+        <v>3</v>
+      </c>
+      <c r="C13" s="61">
+        <f t="shared" ref="C13:C18" si="2">$C$7</f>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D13" s="75">
+        <v>800</v>
+      </c>
+      <c r="E13" s="61">
+        <f t="shared" si="1"/>
+        <v>-364.78065691716188</v>
+      </c>
+      <c r="F13" s="103">
+        <f t="shared" si="0"/>
+        <v>-259.6436663780363</v>
+      </c>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="75">
+        <v>4</v>
+      </c>
+      <c r="C14" s="61">
+        <f t="shared" si="2"/>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D14" s="75">
+        <v>800</v>
+      </c>
+      <c r="E14" s="61">
+        <f t="shared" si="1"/>
+        <v>-364.78065691716188</v>
+      </c>
+      <c r="F14" s="103">
+        <f t="shared" si="0"/>
+        <v>-231.82470212324671</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="75">
+        <v>5</v>
+      </c>
+      <c r="C15" s="61">
+        <f t="shared" si="2"/>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="61">
+        <f t="shared" si="1"/>
+        <v>35.219343082838122</v>
+      </c>
+      <c r="F15" s="103">
+        <f t="shared" si="0"/>
+        <v>19.984401105969432</v>
+      </c>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="75">
+        <v>6</v>
+      </c>
+      <c r="C16" s="61">
+        <f t="shared" si="2"/>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D16" s="75">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="61">
+        <f t="shared" si="1"/>
+        <v>35.219343082838122</v>
+      </c>
+      <c r="F16" s="103">
+        <f t="shared" si="0"/>
+        <v>17.843215273186992</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="75">
+        <v>7</v>
+      </c>
+      <c r="C17" s="61">
+        <f t="shared" si="2"/>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D17" s="75">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="61">
+        <f t="shared" si="1"/>
+        <v>35.219343082838122</v>
+      </c>
+      <c r="F17" s="103">
+        <f t="shared" si="0"/>
+        <v>15.93144220820267</v>
+      </c>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="105">
+        <v>8</v>
+      </c>
+      <c r="C18" s="106">
+        <f t="shared" si="2"/>
+        <v>1164.7806569171619</v>
+      </c>
+      <c r="D18" s="105">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="106">
+        <f t="shared" si="1"/>
+        <v>35.219343082838122</v>
+      </c>
+      <c r="F18" s="103">
+        <f t="shared" si="0"/>
+        <v>14.224501971609527</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="104">
+        <f>SUM(F10:F18)</f>
+        <v>-8.6508578078792198E-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="H9:M17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8432,39 +10833,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -8474,35 +10875,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="K7" s="75" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="K7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -8537,12 +10938,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -8660,15 +11061,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -8681,13 +11082,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -8700,13 +11101,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -8719,13 +11120,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -8738,13 +11139,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -8815,11 +11216,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -8830,13 +11231,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -8853,13 +11254,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -8869,10 +11270,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -8880,28 +11281,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="80"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="77"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="K37" s="75" t="s">
+      <c r="G37" s="78"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="K37" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -9173,20 +11574,25 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -9201,11 +11607,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9227,16 +11628,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -9245,12 +11646,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -9259,10 +11660,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -9403,21 +11804,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -9425,28 +11826,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -9467,10 +11868,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -9488,10 +11889,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9683,13 +12084,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9712,13 +12113,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -9741,13 +12142,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -9770,13 +12171,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9799,13 +12200,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -9828,13 +12229,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9857,13 +12258,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -9886,13 +12287,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -9915,13 +12316,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -9944,13 +12345,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -9973,13 +12374,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -10002,13 +12403,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -10031,13 +12432,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -10082,11 +12483,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -10109,13 +12510,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -10138,13 +12539,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -10167,13 +12568,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -10196,13 +12597,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -10247,13 +12648,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="83" t="s">
+      <c r="J37" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -10274,189 +12675,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="G39" s="84" t="s">
+      <c r="E39" s="89"/>
+      <c r="G39" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
+      <c r="H39" s="88"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="83" t="s">
+      <c r="I44" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10486,7 +12887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -10496,75 +12897,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10582,18 +12983,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -10605,13 +13006,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -10621,13 +13022,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -10640,13 +13041,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -10659,13 +13060,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -10678,13 +13079,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -10697,13 +13098,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -10728,13 +13129,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -10759,17 +13160,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="76"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="77"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -10782,15 +13183,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="76"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="77"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -10803,12 +13204,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -10821,20 +13222,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -10847,65 +13248,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -10918,10 +13319,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -10942,11 +13343,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -10958,14 +13359,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -10975,14 +13376,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -10996,14 +13397,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -11017,14 +13418,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -11038,14 +13439,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -11059,14 +13460,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -11080,14 +13481,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -11101,14 +13502,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -11122,14 +13523,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -11143,14 +13544,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -11164,14 +13565,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -11185,14 +13586,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -11206,14 +13607,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -11230,6 +13631,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -11238,11 +13644,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11254,7 +13655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
@@ -11264,51 +13665,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="80"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -11322,95 +13723,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="90">
+      <c r="C12" s="86"/>
+      <c r="D12" s="94">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="90"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -11422,91 +13823,83 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="90">
+      <c r="C24" s="77"/>
+      <c r="D24" s="94">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="90"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="94"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -11518,6 +13911,14 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11529,7 +13930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -11543,36 +13944,36 @@
       <c r="A3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="G4" s="76" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="G4" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -11584,9 +13985,9 @@
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -11618,11 +14019,11 @@
       <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -11632,11 +14033,11 @@
       <c r="D12" s="16">
         <v>300000</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -11650,11 +14051,11 @@
         <f>D12+C13</f>
         <v>345000</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -11668,11 +14069,11 @@
         <f t="shared" ref="D14:D17" si="1">D13+C14</f>
         <v>396750</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -11686,11 +14087,11 @@
         <f t="shared" si="1"/>
         <v>456262.5</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -11704,11 +14105,11 @@
         <f t="shared" si="1"/>
         <v>524701.875</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -11722,25 +14123,25 @@
         <f t="shared" si="1"/>
         <v>603407.15625</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="55"/>
@@ -11771,12 +14172,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -11786,50 +14187,50 @@
         <f>RATE(C24,,-C23,F23)</f>
         <v>0.1075663432482912</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -11854,12 +14255,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -11869,28 +14270,28 @@
         <f>RATE(C36,,-C35,F35)</f>
         <v>0.14869835499702141</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11916,8 +14317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11926,38 +14327,38 @@
       <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -12223,10 +14624,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12235,53 +14636,50 @@
       <c r="A2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="L3" t="s">
-        <v>121</v>
-      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="55"/>
@@ -12470,94 +14868,397 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:J5"/>
     <mergeCell ref="B15:K21"/>
+    <mergeCell ref="A23:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="19" sheetId="12" r:id="rId12"/>
     <sheet name="20" sheetId="13" r:id="rId13"/>
     <sheet name="21" sheetId="14" r:id="rId14"/>
+    <sheet name="23" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -476,9 +477,6 @@
     <t>Un banco ha prestado a una persona un monto de $10000, a una tasa de interés del 10% compuesto anualmente por siete años. Se acuerda pagar la deuda con pagos iguales al final de cada año. ¿Cuál es el valor de ese pago?</t>
   </si>
   <si>
-    <t>Falta grafica</t>
-  </si>
-  <si>
     <t>Monto</t>
   </si>
   <si>
@@ -537,6 +535,84 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Va a comprar un computador y tiene dos opciones de pago; tarjeta de crédito y cheque posfechado a 90 días.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si paga con tarjeta de crédito, el pago se difiere automáticamente a 6 cuotas mensuales con una tasa de interés mensual de 1.9%.</t>
+    </r>
+  </si>
+  <si>
+    <t>N(mes)</t>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si paga con cheque posfechado el valor del computador se incrementa en un 12%.</t>
+    </r>
+  </si>
+  <si>
+    <t>Si el computador vale $1’800.000 ¿cuál es la mejor forma de pago?</t>
+  </si>
+  <si>
+    <t>Valor Futuro</t>
   </si>
 </sst>
 </file>
@@ -635,7 +711,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +751,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -763,7 +845,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,8 +1028,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,9 +1080,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,12 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,11 +1100,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1027,27 +1139,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -9004,10 +9110,1784 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CuadroTexto 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="6400800"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CuadroTexto 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="5886450"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CuadroTexto 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CuadroTexto 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CuadroTexto 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CuadroTexto 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CuadroTexto 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="5886450"/>
+          <a:ext cx="381000" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CuadroTexto 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="5876925"/>
+          <a:ext cx="342900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CuadroTexto 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="5886450"/>
+          <a:ext cx="381000" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CuadroTexto 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CuadroTexto 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CuadroTexto 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="CuadroTexto 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="5715000"/>
+          <a:ext cx="3838575" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="6096000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="6115050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="752475" y="4772025"/>
+          <a:ext cx="9525" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="6477003"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="649217" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CuadroTexto 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="3981450"/>
+          <a:ext cx="649217" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>300.000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565283" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CuadroTexto 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="4914900"/>
+          <a:ext cx="565283" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> 15%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="765338" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CuadroTexto 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="6543675"/>
+          <a:ext cx="765338" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>A= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>89.495</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto de flecha 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="5905503"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector recto de flecha 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3810000" y="5905503"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Conector recto de flecha 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="5895978"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector recto de flecha 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="5895978"/>
+          <a:ext cx="4" cy="590547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CuadroTexto 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="5314950"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CuadroTexto 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="5324475"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CuadroTexto 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="5324475"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CuadroTexto 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="5334000"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CuadroTexto 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="5314950"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CuadroTexto 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="5838825"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -9240,6 +11120,1540 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Conector recto 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1533525" y="6848475"/>
+          <a:ext cx="5353050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="6096000"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector recto 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Conector recto 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="6115050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector recto 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Conector recto 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Conector recto 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conector recto 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="6115050"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conector recto 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="6105525"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conector recto de flecha 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="752475" y="4772025"/>
+          <a:ext cx="9525" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Conector recto de flecha 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="7029453"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Conector recto de flecha 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="7038978"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Conector recto de flecha 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3810000" y="7038978"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector recto de flecha 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="7038978"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Conector recto de flecha 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5334000" y="7038978"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Conector recto de flecha 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6096000" y="7058028"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conector recto de flecha 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6858000" y="7048503"/>
+          <a:ext cx="4" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Conector recto 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="8001000"/>
+          <a:ext cx="4591050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Conector recto 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="7886700"/>
+          <a:ext cx="9525" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Conector recto 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="7886700"/>
+          <a:ext cx="9525" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="577722" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CuadroTexto 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="5124450"/>
+          <a:ext cx="577722" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10.000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565283" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="CuadroTexto 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="6143625"/>
+          <a:ext cx="565283" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> 10%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="872034" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="CuadroTexto 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8039100"/>
+          <a:ext cx="872034" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>A= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>2.054,05</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="CuadroTexto 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="6400800"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="CuadroTexto 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="5886450"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="CuadroTexto 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="CuadroTexto 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="CuadroTexto 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CuadroTexto 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="CuadroTexto 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="5905500"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283873" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="CuadroTexto 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="5895975"/>
+          <a:ext cx="283873" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -9517,13 +12931,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -9587,56 +13001,56 @@
       <c r="A2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -9693,10 +13107,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M17"/>
+  <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,33 +13119,30 @@
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="I3" t="s">
-        <v>121</v>
-      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -9763,12 +13174,12 @@
         <f>PMT(C6,C7,-F6)</f>
         <v>89494.665738458498</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -9777,20 +13188,20 @@
       <c r="C9" s="65">
         <v>89494.665738458527</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
@@ -9808,12 +13219,12 @@
       <c r="F11" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -9825,12 +13236,12 @@
       <c r="F12" s="66">
         <v>300000</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
@@ -9852,12 +13263,12 @@
         <f>F12-D13</f>
         <v>255505.33426154149</v>
       </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
@@ -9879,12 +13290,12 @@
         <f t="shared" ref="F14:F16" si="3">F13-D14</f>
         <v>204336.46866231418</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
@@ -9906,12 +13317,12 @@
         <f t="shared" si="3"/>
         <v>145492.27322320279</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
@@ -9933,14 +13344,14 @@
         <f t="shared" si="3"/>
         <v>77821.448468224684</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>5</v>
       </c>
@@ -9960,29 +13371,319 @@
         <f>F16-D17</f>
         <v>-1.4551915228366852E-10</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="H8:M17"/>
+    <mergeCell ref="B21:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9991,33 +13692,30 @@
       <c r="A2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="I4" t="s">
-        <v>121</v>
-      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="50" t="s">
@@ -10027,7 +13725,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="29">
         <v>10000</v>
@@ -10049,51 +13747,51 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="L11" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="H11" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="L11" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="65">
         <v>2054.0549970059565</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="B14" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="H14" s="51" t="s">
         <v>114</v>
       </c>
@@ -10101,11 +13799,11 @@
         <f>PMT(C6,F7,-F6,0)</f>
         <v>2054.0549970059569</v>
       </c>
-      <c r="L14" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="L14" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
@@ -10123,9 +13821,9 @@
       <c r="F15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="98"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -10292,8 +13990,207 @@
         <v>4.0927261579781771E-12</v>
       </c>
     </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B25:J42"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="H11:J12"/>
     <mergeCell ref="M14:N15"/>
@@ -10322,44 +14219,44 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -10369,7 +14266,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="68">
         <v>9282.57</v>
@@ -10382,15 +14279,15 @@
       <c r="C8">
         <v>500</v>
       </c>
-      <c r="H8" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="96"/>
+      <c r="H8" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="106"/>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10412,7 +14309,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="70">
@@ -10421,7 +14318,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <f>$C$8</f>
@@ -10440,12 +14337,12 @@
         <v>9282.57</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <f>$C$8</f>
@@ -10478,7 +14375,7 @@
   <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10489,39 +14386,39 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
@@ -10553,9 +14450,9 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="109">
+        <v>140</v>
+      </c>
+      <c r="C7" s="85">
         <v>1164.7806569171619</v>
       </c>
       <c r="D7" s="72"/>
@@ -10567,10 +14464,10 @@
         <v>32</v>
       </c>
       <c r="C9" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="73" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>140</v>
       </c>
       <c r="E9" s="73" t="s">
         <v>84</v>
@@ -10578,12 +14475,12 @@
       <c r="F9" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="75">
@@ -10592,16 +14489,16 @@
       <c r="C10" s="75"/>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
-      <c r="F10" s="103">
+      <c r="F10" s="79">
         <f>PV($F$6,B10,,-E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="75">
@@ -10615,16 +14512,16 @@
         <f>D11-C11</f>
         <v>800</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="79">
         <f t="shared" ref="F11:F18" si="0">PV($F$6,B11,,-E11)</f>
         <v>714.28571428571422</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="75">
@@ -10641,16 +14538,16 @@
         <f t="shared" ref="E12:E18" si="1">D12-C12</f>
         <v>-364.78065691716188</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="79">
         <f t="shared" si="0"/>
         <v>-290.8009063434007</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="75">
@@ -10667,16 +14564,16 @@
         <f t="shared" si="1"/>
         <v>-364.78065691716188</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="79">
         <f t="shared" si="0"/>
         <v>-259.6436663780363</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="75">
@@ -10693,16 +14590,16 @@
         <f t="shared" si="1"/>
         <v>-364.78065691716188</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="79">
         <f t="shared" si="0"/>
         <v>-231.82470212324671</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="75">
@@ -10719,16 +14616,16 @@
         <f t="shared" si="1"/>
         <v>35.219343082838122</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="79">
         <f t="shared" si="0"/>
         <v>19.984401105969432</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="75">
@@ -10745,16 +14642,16 @@
         <f t="shared" si="1"/>
         <v>35.219343082838122</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="79">
         <f t="shared" si="0"/>
         <v>17.843215273186992</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="75">
@@ -10771,43 +14668,43 @@
         <f t="shared" si="1"/>
         <v>35.219343082838122</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="79">
         <f t="shared" si="0"/>
         <v>15.93144220820267</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="105">
+      <c r="B18" s="81">
         <v>8</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="82">
         <f t="shared" si="2"/>
         <v>1164.7806569171619</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="81">
         <v>1200</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="82">
         <f t="shared" si="1"/>
         <v>35.219343082838122</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="79">
         <f t="shared" si="0"/>
         <v>14.224501971609527</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="104">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="80">
         <f>SUM(F10:F18)</f>
         <v>-8.6508578078792198E-13</v>
       </c>
@@ -10819,6 +14716,336 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="114"/>
+      <c r="I5" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="38"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1800000</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="76">
+        <v>6</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="29">
+        <v>320262.8433265317</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="54">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="65">
+        <f>J9+(J9*J10)</f>
+        <v>2016000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="78">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
+        <v>1800000</v>
+      </c>
+      <c r="G13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="78">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <f>$F$10</f>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D14" s="16">
+        <f>C14-E14</f>
+        <v>286062.8433265317</v>
+      </c>
+      <c r="E14" s="16">
+        <f>F13*$C$9</f>
+        <v>34200</v>
+      </c>
+      <c r="F14" s="16">
+        <f>F13-D14</f>
+        <v>1513937.1566734682</v>
+      </c>
+      <c r="G14" s="59">
+        <f>FV($C$9,B14,-C14)</f>
+        <v>320262.84332653013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="78">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:C19" si="0">$F$10</f>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:D19" si="1">C15-E15</f>
+        <v>291498.03734973579</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:E19" si="2">F14*$C$9</f>
+        <v>28764.805976795895</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" ref="F15:F19" si="3">F14-D15</f>
+        <v>1222439.1193237323</v>
+      </c>
+      <c r="G15" s="59">
+        <f t="shared" ref="G15:G19" si="4">FV($C$9,B15,-C15)</f>
+        <v>646610.68067626527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="78">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>297036.50005938078</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>23226.343267150914</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="3"/>
+        <v>925402.61926435155</v>
+      </c>
+      <c r="G16" s="59">
+        <f t="shared" si="4"/>
+        <v>979159.12693564582</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="78">
+        <v>4</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="1"/>
+        <v>302680.19356050901</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>17582.649766022678</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="3"/>
+        <v>622722.42570384254</v>
+      </c>
+      <c r="G17" s="59">
+        <f t="shared" si="4"/>
+        <v>1318025.9936739544</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="78">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="0"/>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="1"/>
+        <v>308431.11723815871</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>11831.726088373009</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="3"/>
+        <v>314291.30846568383</v>
+      </c>
+      <c r="G18" s="59">
+        <f t="shared" si="4"/>
+        <v>1663331.3308802878</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="78">
+        <v>6</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="0"/>
+        <v>320262.8433265317</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="1"/>
+        <v>314291.30846568372</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>5971.5348608479926</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="119">
+        <f>FV($C$9,B19,-C19)</f>
+        <v>2015197.4694935477</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="116"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I5:M7"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10833,39 +15060,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -10875,35 +15102,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="K7" s="80" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="K7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -10938,12 +15165,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -11061,15 +15288,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -11082,13 +15309,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -11101,13 +15328,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -11120,13 +15347,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -11139,13 +15366,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -11216,11 +15443,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -11231,13 +15458,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -11254,13 +15481,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -11270,10 +15497,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="82"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -11281,28 +15508,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="82"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="K37" s="80" t="s">
+      <c r="G37" s="91"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="K37" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -11574,25 +15801,20 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -11607,6 +15829,11 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11628,16 +15855,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -11646,12 +15873,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -11660,10 +15887,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -11804,21 +16031,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -11826,28 +16053,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="82"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -11868,10 +16095,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -11889,10 +16116,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -12084,13 +16311,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -12113,13 +16340,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -12142,13 +16369,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -12171,13 +16398,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -12200,13 +16427,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -12229,13 +16456,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -12258,13 +16485,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -12287,13 +16514,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -12316,13 +16543,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -12345,13 +16572,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -12374,13 +16601,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -12403,13 +16630,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -12432,13 +16659,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -12483,11 +16710,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="87" t="s">
+      <c r="I31" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -12510,13 +16737,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -12539,13 +16766,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -12568,13 +16795,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -12597,13 +16824,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -12648,13 +16875,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="87" t="s">
+      <c r="J37" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -12675,189 +16902,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="89"/>
-      <c r="G39" s="88" t="s">
+      <c r="E39" s="99"/>
+      <c r="G39" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
+      <c r="H39" s="98"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="77"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="77"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12897,75 +17124,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -12983,18 +17210,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -13006,13 +17233,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -13022,13 +17249,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -13041,13 +17268,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -13060,13 +17287,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -13079,13 +17306,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -13098,13 +17325,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -13129,13 +17356,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -13160,17 +17387,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="77"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="90"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -13183,15 +17410,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="77"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="90"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -13204,12 +17431,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -13222,20 +17449,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="82"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -13248,65 +17475,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -13319,10 +17546,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="93"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -13343,11 +17570,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -13359,14 +17586,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -13376,14 +17603,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -13397,14 +17624,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -13418,14 +17645,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -13439,14 +17666,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -13460,14 +17687,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -13481,14 +17708,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -13502,14 +17729,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -13523,14 +17750,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -13544,14 +17771,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -13565,14 +17792,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -13586,14 +17813,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -13607,14 +17834,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -13631,11 +17858,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -13644,6 +17866,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13665,51 +17892,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -13723,95 +17950,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="94">
+      <c r="C12" s="96"/>
+      <c r="D12" s="104">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -13823,83 +18050,91 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="94">
+      <c r="C24" s="90"/>
+      <c r="D24" s="104">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="94"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="104"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -13911,14 +18146,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13944,36 +18171,36 @@
       <c r="A3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="G4" s="77" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="G4" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="77"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -13985,9 +18212,9 @@
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -14019,11 +18246,11 @@
       <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -14033,11 +18260,11 @@
       <c r="D12" s="16">
         <v>300000</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -14051,11 +18278,11 @@
         <f>D12+C13</f>
         <v>345000</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -14069,11 +18296,11 @@
         <f t="shared" ref="D14:D17" si="1">D13+C14</f>
         <v>396750</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -14087,11 +18314,11 @@
         <f t="shared" si="1"/>
         <v>456262.5</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -14105,11 +18332,11 @@
         <f t="shared" si="1"/>
         <v>524701.875</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -14123,25 +18350,25 @@
         <f t="shared" si="1"/>
         <v>603407.15625</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="55"/>
@@ -14172,12 +18399,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -14187,50 +18414,50 @@
         <f>RATE(C24,,-C23,F23)</f>
         <v>0.1075663432482912</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -14255,12 +18482,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -14270,28 +18497,28 @@
         <f>RATE(C36,,-C35,F35)</f>
         <v>0.14869835499702141</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14327,38 +18554,38 @@
       <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -14626,8 +18853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14636,50 +18863,50 @@
       <c r="A2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="55"/>
@@ -14868,88 +19095,88 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
@@ -14964,292 +19191,292 @@
       <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
+++ b/Docs/Grupo10-Carbonell-Martinez-Taller1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 10-Carbonell-Martinez-T1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
   <si>
     <t>Universidad Nacional de  Colombia</t>
   </si>
@@ -614,6 +614,9 @@
   <si>
     <t>Valor Futuro</t>
   </si>
+  <si>
+    <t>23.</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,17 +1061,20 @@
     <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1086,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1087,6 +1096,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,11 +1115,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,21 +1154,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -12931,13 +12934,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="6" spans="4:8" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
@@ -13001,56 +13004,56 @@
       <c r="A2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -13119,30 +13122,30 @@
       <c r="A2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -13174,12 +13177,12 @@
         <f>PMT(C6,C7,-F6)</f>
         <v>89494.665738458498</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -13188,20 +13191,20 @@
       <c r="C9" s="65">
         <v>89494.665738458527</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
@@ -13219,12 +13222,12 @@
       <c r="F11" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -13236,12 +13239,12 @@
       <c r="F12" s="66">
         <v>300000</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
@@ -13263,12 +13266,12 @@
         <f>F12-D13</f>
         <v>255505.33426154149</v>
       </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
@@ -13290,12 +13293,12 @@
         <f t="shared" ref="F14:F16" si="3">F13-D14</f>
         <v>204336.46866231418</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
@@ -13317,12 +13320,12 @@
         <f t="shared" si="3"/>
         <v>145492.27322320279</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
@@ -13344,12 +13347,12 @@
         <f t="shared" si="3"/>
         <v>77821.448468224684</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
@@ -13371,300 +13374,300 @@
         <f>F16-D17</f>
         <v>-1.4551915228366852E-10</v>
       </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13692,30 +13695,30 @@
       <c r="A2" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="50" t="s">
@@ -13747,28 +13750,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="111" t="s">
+      <c r="H11" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="L11" s="106" t="s">
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="L11" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
@@ -13777,21 +13780,21 @@
       <c r="C12" s="65">
         <v>2054.0549970059565</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
       <c r="H14" s="51" t="s">
         <v>114</v>
       </c>
@@ -13799,11 +13802,11 @@
         <f>PMT(C6,F7,-F6,0)</f>
         <v>2054.0549970059569</v>
       </c>
-      <c r="L14" s="108" t="s">
+      <c r="L14" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
@@ -13821,9 +13824,9 @@
       <c r="F15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -13991,202 +13994,202 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14221,42 +14224,42 @@
       <c r="A2" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -14279,15 +14282,15 @@
       <c r="C8">
         <v>500</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -14388,37 +14391,37 @@
       <c r="A2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
@@ -14475,12 +14478,12 @@
       <c r="F9" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="75">
@@ -14493,12 +14496,12 @@
         <f>PV($F$6,B10,,-E10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="75">
@@ -14516,12 +14519,12 @@
         <f t="shared" ref="F11:F18" si="0">PV($F$6,B11,,-E11)</f>
         <v>714.28571428571422</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="75">
@@ -14542,12 +14545,12 @@
         <f t="shared" si="0"/>
         <v>-290.8009063434007</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="75">
@@ -14568,12 +14571,12 @@
         <f t="shared" si="0"/>
         <v>-259.6436663780363</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="75">
@@ -14594,12 +14597,12 @@
         <f t="shared" si="0"/>
         <v>-231.82470212324671</v>
       </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="75">
@@ -14620,12 +14623,12 @@
         <f t="shared" si="0"/>
         <v>19.984401105969432</v>
       </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="75">
@@ -14646,12 +14649,12 @@
         <f t="shared" si="0"/>
         <v>17.843215273186992</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="75">
@@ -14672,12 +14675,12 @@
         <f t="shared" si="0"/>
         <v>15.93144220820267</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="81">
@@ -14723,8 +14726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14734,61 +14737,61 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="114"/>
-      <c r="I5" s="102" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="87"/>
+      <c r="I5" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="38"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="76" t="s">
@@ -14846,10 +14849,10 @@
       <c r="F12" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="117" t="s">
+      <c r="I12" s="89" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="65">
@@ -14915,7 +14918,7 @@
         <v>1222439.1193237323</v>
       </c>
       <c r="G15" s="59">
-        <f t="shared" ref="G15:G19" si="4">FV($C$9,B15,-C15)</f>
+        <f t="shared" ref="G15:G18" si="4">FV($C$9,B15,-C15)</f>
         <v>646610.68067626527</v>
       </c>
     </row>
@@ -15014,28 +15017,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G19" s="91">
         <f>FV($C$9,B19,-C19)</f>
         <v>2015197.4694935477</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="116"/>
+      <c r="C20" s="88"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="38"/>
     </row>
   </sheetData>
@@ -15060,39 +15063,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -15102,35 +15105,35 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="13">
         <v>5000</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="K7" s="89" t="s">
+      <c r="G7" s="94"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="K7" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -15165,12 +15168,12 @@
         <f>$D$7*(1+C10)</f>
         <v>5437.5</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -15288,15 +15291,15 @@
         <f t="shared" si="0"/>
         <v>8770.9773197149116</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -15309,13 +15312,13 @@
         <f t="shared" si="0"/>
         <v>8946.3968661092094</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -15328,13 +15331,13 @@
         <f t="shared" si="0"/>
         <v>9229.9976467648721</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -15347,13 +15350,13 @@
         <f t="shared" si="0"/>
         <v>9574.2765589892024</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -15366,13 +15369,13 @@
         <f t="shared" si="0"/>
         <v>9903.6316726184305</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -15443,11 +15446,11 @@
         <f t="shared" si="0"/>
         <v>12690.66747310171</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
@@ -15458,13 +15461,13 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -15481,13 +15484,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
@@ -15497,10 +15500,10 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="25">
         <v>5000</v>
       </c>
@@ -15508,28 +15511,28 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="94"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="9">
         <f>AVERAGE(C10:C28)</f>
         <v>5.0421052631578943E-2</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="91" t="s">
+      <c r="F37" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="91"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="K37" s="89" t="s">
+      <c r="G37" s="94"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="K37" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -15801,20 +15804,25 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B7:C7"/>
@@ -15829,11 +15837,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -15855,16 +15858,16 @@
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -15873,12 +15876,12 @@
       <c r="C5" s="27">
         <v>0.05</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -15887,10 +15890,10 @@
       <c r="C6" s="29">
         <v>3000000</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="28"/>
@@ -16031,21 +16034,21 @@
       <c r="A3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -16053,28 +16056,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="29">
         <v>1000000</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -16095,10 +16098,10 @@
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
@@ -16116,10 +16119,10 @@
       <c r="G9" s="16">
         <v>1000000</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -16311,13 +16314,13 @@
         <f t="shared" si="1"/>
         <v>727305.92510820716</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -16340,13 +16343,13 @@
         <f t="shared" si="1"/>
         <v>704958.73326374637</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -16369,13 +16372,13 @@
         <f t="shared" si="1"/>
         <v>691136.01300367294</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -16398,13 +16401,13 @@
         <f t="shared" si="1"/>
         <v>641902.12037120177</v>
       </c>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -16427,13 +16430,13 @@
         <f t="shared" si="1"/>
         <v>607344.23348585656</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -16456,13 +16459,13 @@
         <f t="shared" si="1"/>
         <v>581301.9080071369</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -16485,13 +16488,13 @@
         <f t="shared" si="1"/>
         <v>554412.88317323499</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -16514,13 +16517,13 @@
         <f t="shared" si="1"/>
         <v>525509.84187036497</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -16543,13 +16546,13 @@
         <f t="shared" si="1"/>
         <v>493482.80765364354</v>
       </c>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -16572,13 +16575,13 @@
         <f t="shared" si="1"/>
         <v>461241.99238587113</v>
       </c>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -16601,13 +16604,13 @@
         <f t="shared" si="1"/>
         <v>428464.46111088817</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -16630,13 +16633,13 @@
         <f t="shared" si="1"/>
         <v>393990.30906748341</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
@@ -16659,13 +16662,13 @@
         <f t="shared" si="1"/>
         <v>360697.89349765028</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -16710,11 +16713,11 @@
         <f t="shared" si="1"/>
         <v>262645.57618211606</v>
       </c>
-      <c r="I31" s="97" t="s">
+      <c r="I31" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -16737,13 +16740,13 @@
         <f t="shared" si="1"/>
         <v>215920.40133353838</v>
       </c>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
@@ -16766,13 +16769,13 @@
         <f t="shared" si="1"/>
         <v>180731.90033777381</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
@@ -16795,13 +16798,13 @@
         <f t="shared" si="1"/>
         <v>147415.90565886933</v>
       </c>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
@@ -16824,13 +16827,13 @@
         <f t="shared" si="1"/>
         <v>120231.55179746296</v>
       </c>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
@@ -16875,13 +16878,13 @@
         <f t="shared" si="1"/>
         <v>75759.055738325609</v>
       </c>
-      <c r="J37" s="97" t="s">
+      <c r="J37" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -16902,189 +16905,189 @@
         <f t="shared" si="1"/>
         <v>57232.798774892806</v>
       </c>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" s="99" t="s">
+      <c r="D39" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="99"/>
-      <c r="G39" s="98" t="s">
+      <c r="E39" s="105"/>
+      <c r="G39" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
+      <c r="H39" s="104"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
     </row>
     <row r="51" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
     </row>
     <row r="52" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
     </row>
     <row r="53" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
     </row>
     <row r="54" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -17124,75 +17127,75 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -17210,18 +17213,18 @@
       <c r="M8" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -17233,13 +17236,13 @@
       <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
@@ -17249,13 +17252,13 @@
       <c r="D12" s="40">
         <v>1000000</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -17268,13 +17271,13 @@
         <f>D12+C13</f>
         <v>1050000</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -17287,13 +17290,13 @@
         <f t="shared" ref="D14:D24" si="0">D13+C14</f>
         <v>1100000</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -17306,13 +17309,13 @@
         <f t="shared" si="0"/>
         <v>1150000</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -17325,13 +17328,13 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -17356,13 +17359,13 @@
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -17387,17 +17390,17 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="90"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="93"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -17410,15 +17413,15 @@
         <f t="shared" si="0"/>
         <v>1450000</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="90"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="93"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -17431,12 +17434,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -17449,20 +17452,20 @@
         <f t="shared" si="0"/>
         <v>1550000</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="45">
         <f>C24/D12</f>
         <v>0.05</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -17475,65 +17478,65 @@
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
@@ -17546,10 +17549,10 @@
       <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="103"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="42">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -17570,11 +17573,11 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -17586,14 +17589,14 @@
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
@@ -17603,14 +17606,14 @@
       <c r="D37" s="16">
         <v>3000000</v>
       </c>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
@@ -17624,14 +17627,14 @@
         <f>D37+C38</f>
         <v>3045900</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
@@ -17645,14 +17648,14 @@
         <f t="shared" ref="D39:D49" si="2">D38+C39</f>
         <v>3092502.27</v>
       </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
@@ -17666,14 +17669,14 @@
         <f t="shared" si="2"/>
         <v>3139817.5547310002</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
@@ -17687,14 +17690,14 @@
         <f t="shared" si="2"/>
         <v>3187856.7633183845</v>
       </c>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
@@ -17708,14 +17711,14 @@
         <f t="shared" si="2"/>
         <v>3236630.9717971557</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
@@ -17729,14 +17732,14 @@
         <f t="shared" si="2"/>
         <v>3286151.4256656524</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -17750,14 +17753,14 @@
         <f t="shared" si="2"/>
         <v>3336429.542478337</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
@@ -17771,14 +17774,14 @@
         <f t="shared" si="2"/>
         <v>3387476.9144782554</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -17792,14 +17795,14 @@
         <f t="shared" si="2"/>
         <v>3439305.3112697727</v>
       </c>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
@@ -17813,14 +17816,14 @@
         <f t="shared" si="2"/>
         <v>3491926.6825322001</v>
       </c>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -17834,14 +17837,14 @@
         <f t="shared" si="2"/>
         <v>3545353.160774943</v>
       </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -17858,6 +17861,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:L16"/>
+    <mergeCell ref="B29:I31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="F36:M48"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F18:J18"/>
@@ -17866,11 +17874,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="J20:O26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B3:L7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:L16"/>
-    <mergeCell ref="B29:I31"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -17892,51 +17895,51 @@
       <c r="A3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="27">
         <v>0.08</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="29">
         <v>6000</v>
       </c>
@@ -17950,95 +17953,95 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="104">
+      <c r="C12" s="102"/>
+      <c r="D12" s="110">
         <f>H7/(1+D7)^G8</f>
         <v>4083.4991822025181</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="27">
         <v>0.08</v>
       </c>
@@ -18050,91 +18053,83 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="94"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="29">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="104">
+      <c r="C24" s="93"/>
+      <c r="D24" s="110">
         <f>D20*(1+D19)^G19</f>
         <v>22039.921152000006</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="104"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="110"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -18146,6 +18141,14 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18171,36 +18174,36 @@
       <c r="A3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="114"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="G4" s="90" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="G4" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="90"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -18212,9 +18215,9 @@
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -18246,11 +18249,11 @@
       <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -18260,11 +18263,11 @@
       <c r="D12" s="16">
         <v>300000</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -18278,11 +18281,11 @@
         <f>D12+C13</f>
         <v>345000</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -18296,11 +18299,11 @@
         <f t="shared" ref="D14:D17" si="1">D13+C14</f>
         <v>396750</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -18314,11 +18317,11 @@
         <f t="shared" si="1"/>
         <v>456262.5</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -18332,11 +18335,11 @@
         <f t="shared" si="1"/>
         <v>524701.875</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -18350,25 +18353,25 @@
         <f t="shared" si="1"/>
         <v>603407.15625</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="55"/>
@@ -18399,12 +18402,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -18414,50 +18417,50 @@
         <f>RATE(C24,,-C23,F23)</f>
         <v>0.1075663432482912</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -18482,12 +18485,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -18497,28 +18500,28 @@
         <f>RATE(C36,,-C35,F35)</f>
         <v>0.14869835499702141</v>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18554,38 +18557,38 @@
       <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -18853,7 +18856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:N40"/>
     </sheetView>
   </sheetViews>
@@ -18863,50 +18866,50 @@
       <c r="A2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="55"/>
@@ -19095,88 +19098,88 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
@@ -19191,292 +19194,292 @@
       <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
